--- a/df.xlsx
+++ b/df.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B123"/>
+  <dimension ref="A1:B1087"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,7 +444,11 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>start</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -452,7 +456,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>['최신 소식을 놓치지 마세요\nX 사용자들은 가장 먼저 새 소식을 듣습니다.\n로그인\n가입하기\nX.com에 오신 것을 환영합니다\nX에서 URL을 변경하고 있음을 알려드립니다.\n개인정보 및 데이터 보호 설정은 동일하게 유지됩니다: https://x.com/en/privacy\n사지\n315 게시물\n팔로우\n팔로우\n사지\n@Aspirin_4140\n당신을 사로잡고 있는 그 한없는 갈망이 무엇인지 모르겠어요\n객석interphase2.postype.com가입일: 2023년 2월\n142 팔로우 중\n138 팔로워\n게시물\n답글\n미디어\n마음에 들어요\n사지 님의 게시물\n메인에 올림\n사지\n@Aspirin_4140\n·\n5월 27일\n#겹친소 #문학_트친소 #문탐_트친소 #문학계_트친소 #독서계_트친소\n하지은작가님책이랑 그외 문탐메이저도서(날개 종의기원 위저베 등)랑 동과거 팝니다\n최애캐는 고요 나르치스 기타등등\n수학은 특히 자연수좋아합니다\n취미로 글도쓰고 자캐놀이도해요\n장기팔이소녀와 트친해주세요\n+양자역학 안믿음\n19\n9\n1.1천\n사지\n@Aspirin_4140\n·\n3월 7일\n얼음나무숲 아세요?\nㄴ아니요\n\n단 하나의\nㄴ청중\n\n내게 자네의 그\nㄴ순수를 줘\n\n모토벤의 고결한\nㄴ복수\n\n얼음나무숲 아세요?\nㄴ아니요\n더 보기\n8\n32\n635\n사지\n@Aspirin_4140\n·\n2월 8일\n얼나숲 키세\n1\n20\n29\n1.2천\n사지\n@Aspirin_4140\n·\n2월 8일\n얼나숲읽으면서\n바옐 절친도잇고\n사랑하는여자도있고\n뭔가 이새키 친구많잖아?? 오랜시간관계를쌓아온 주변인이 상당히 많길래\n고요가 이사람들을 이길수잇을까? 어케 마지막엔 다들 오직 고요바옐고요를 외치게되는걸까 싶었는데\n다죽음\n걍 다.죽음\n몰살\n1\n11\n27\n858\n사지\n@Aspirin_4140\n·\n3월 9일\n쟌\n25\n276\nX는 처음이신가요?\n지금 가입해서 나에게 맞춤 설정된 타임라인을 만들어 보세요!\nApple에서 가입하기\n계정 만들기\n가입하시려면 쿠키 사용을 포함해 이용약관과 개인정보 처리방침에 동의해야 합니다.\n문제가 발생했습니다. 새로고침해 보세요.\n다시 시도\n이용약관\n개인정보 처리방침\n쿠키 정책\n접근성\n광고 정보\n더 보기\n© 2024 X Corp.']</t>
+          <t>['최신 소식을 놓치지 마세요\nX 사용자들은 가장 먼저 새 소식을 듣습니다.\n로그인\n가입하기\nX.com에 오신 것을 환영합니다\nX에서 URL을 변경하고 있음을 알려드립니다.\n개인정보 및 데이터 보호 설정은 동일하게 유지됩니다: https://x.com/en/privacy\n사지\n315 게시물\n팔로우\n팔로우\n사지\n@Aspirin_4140\n당신을 사로잡고 있는 그 한없는 갈망이 무엇인지 모르겠어요\n객석interphase2.postype.com가입일: 2023년 2월\n142 팔로우 중\n138 팔로워\n게시물\n답글\n미디어\n마음에 들어요\n사지 님의 게시물\n메인에 올림\n사지\n@Aspirin_4140\n·\n5월 27일\n#겹친소 #문학_트친소 #문탐_트친소 #문학계_트친소 #독서계_트친소\n하지은작가님책이랑 그외 문탐메이저도서(날개 종의기원 위저베 등)랑 동과거 팝니다\n최애캐는 고요 나르치스 기타등등\n수학은 특히 자연수좋아합니다\n취미로 글도쓰고 자캐놀이도해요\n장기팔이소녀와 트친해주세요\n+양자역학 안믿음\n19\n9\n1.1천\n사지\n@Aspirin_4140\n·\n3월 7일\n얼음나무숲 아세요?\nㄴ아니요\n\n단 하나의\nㄴ청중\n\n내게 자네의 그\nㄴ순수를 줘\n\n모토벤의 고결한\nㄴ복수\n\n얼음나무숲 아세요?\nㄴ아니요\n더 보기\n8\n32\n635\n사지\n@Aspirin_4140\n·\n2월 8일\n얼나숲 키세\n1\n20\n29\n1.2천\n사지\n@Aspirin_4140\n·\n2월 8일\n얼나숲읽으면서\n바옐 절친도잇고\n사랑하는여자도있고\n뭔가 이새키 친구많잖아?? 오랜시간관계를쌓아온 주변인이 상당히 많길래\n고요가 이사람들을 이길수잇을까? 어케 마지막엔 다들 오직 고요바옐고요를 외치게되는걸까 싶었는데\n다죽음\n걍 다.죽음\n몰살\n1\n11\n27\n858\n사지\n@Aspirin_4140\n·\n3월 9일\n쟌\n25\n276\n사지\n@Aspirin_4140\n·\n3월 20일\n트친이얼나숲읽고잇어요\n즐거워요\n5\n21\n272\n사지\n@Aspirin_4140\n·\n2023년 11월 4일\n인간의 70%가 물이니까 우리가 물을 마시는 것은 사실상 거의 식인을 하는것과 다름없는 것입니다.\n1\n17\n2.4천\n사지\n@Aspirin_4140\n·\n4월 7일\n애인 사귀는 족족 죽이고 곡뽑아내던 미친살인마음악가가\n곡을 포기하면서까지 안 죽이고 곁에 살려두고싶다고생각하게되는 그런 사람을 만나버려서 혼란스러워하는걸 보고싶다\n2\n18\n212\n사지\n@Aspirin_4140\n·\n3월 9일\n러시아소설특: 맨날 속으로는 극대노하고 온갖생각 망상다하고 일어나지도않은일가지고 내가오늘진짜다죽인다다패버릴거다 이러고 나오는데 정작 실제상황에선 아무것도못하고 쭈굴하게있다가 집에와서 잠이나잠\n3\n16\n274\n사지\n@Aspirin_4140\n·\n2월 8일\n트리키세 ㅋㅋㅋㅋㅋㅋㅋㅋ\n사실안웃김\n9\n16\n949\nX는 처음이신가요?\n지금 가입해서 나에게 맞춤 설정된 타임라인을 만들어 보세요!\nApple에서 가입하기\n계정 만들기\n가입하시려면 쿠키 사용을 포함해 이용약관과 개인정보 처리방침에 동의해야 합니다.\n문제가 발생했습니다. 새로고침해 보세요.\n다시 시도\n이용약관\n개인정보 처리방침\n쿠키 정책\n접근성\n광고 정보\n더 보기\n© 2024 X Corp.']</t>
         </is>
       </c>
     </row>
@@ -462,7 +466,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>['최신 소식을 놓치지 마세요\nX 사용자들은 가장 먼저 새 소식을 듣습니다.\n로그인\n가입하기\nX.com에 오신 것을 환영합니다\nX에서 URL을 변경하고 있음을 알려드립니다.\n개인정보 및 데이터 보호 설정은 동일하게 유지됩니다: https://x.com/en/privacy\n사지\n315 게시물\n팔로우\n팔로우\n사지\n@Aspirin_4140\n당신을 사로잡고 있는 그 한없는 갈망이 무엇인지 모르겠어요\n객석interphase2.postype.com가입일: 2023년 2월\n142 팔로우 중\n138 팔로워\n게시물\n답글\n미디어\n마음에 들어요\n사지 님의 게시물\n메인에 올림\n사지\n@Aspirin_4140\n·\n5월 27일\n#겹친소 #문학_트친소 #문탐_트친소 #문학계_트친소 #독서계_트친소\n하지은작가님책이랑 그외 문탐메이저도서(날개 종의기원 위저베 등)랑 동과거 팝니다\n최애캐는 고요 나르치스 기타등등\n수학은 특히 자연수좋아합니다\n취미로 글도쓰고 자캐놀이도해요\n장기팔이소녀와 트친해주세요\n+양자역학 안믿음\n19\n9\n1.1천\n사지\n@Aspirin_4140\n·\n3월 7일\n얼음나무숲 아세요?\nㄴ아니요\n\n단 하나의\nㄴ청중\n\n내게 자네의 그\nㄴ순수를 줘\n\n모토벤의 고결한\nㄴ복수\n\n얼음나무숲 아세요?\nㄴ아니요\n더 보기\n8\n32\n635\n사지\n@Aspirin_4140\n·\n2월 8일\n얼나숲 키세\n1\n20\n29\n1.2천\n사지\n@Aspirin_4140\n·\n2월 8일\n얼나숲읽으면서\n바옐 절친도잇고\n사랑하는여자도있고\n뭔가 이새키 친구많잖아?? 오랜시간관계를쌓아온 주변인이 상당히 많길래\n고요가 이사람들을 이길수잇을까? 어케 마지막엔 다들 오직 고요바옐고요를 외치게되는걸까 싶었는데\n다죽음\n걍 다.죽음\n몰살\n1\n11\n27\n858\n사지\n@Aspirin_4140\n·\n3월 9일\n쟌\n25\n276\nX는 처음이신가요?\n지금 가입해서 나에게 맞춤 설정된 타임라인을 만들어 보세요!\nApple에서 가입하기\n계정 만들기\n가입하시려면 쿠키 사용을 포함해 이용약관과 개인정보 처리방침에 동의해야 합니다.\n문제가 발생했습니다. 새로고침해 보세요.\n다시 시도\n이용약관\n개인정보 처리방침\n쿠키 정책\n접근성\n광고 정보\n더 보기\n© 2024 X Corp.']</t>
+          <t>['최신 소식을 놓치지 마세요\nX 사용자들은 가장 먼저 새 소식을 듣습니다.\n로그인\n가입하기\nX.com에 오신 것을 환영합니다\nX에서 URL을 변경하고 있음을 알려드립니다.\n개인정보 및 데이터 보호 설정은 동일하게 유지됩니다: https://x.com/en/privacy\n사지\n315 게시물\n팔로우\n팔로우\n사지\n@Aspirin_4140\n당신을 사로잡고 있는 그 한없는 갈망이 무엇인지 모르겠어요\n객석interphase2.postype.com가입일: 2023년 2월\n142 팔로우 중\n138 팔로워\n게시물\n답글\n미디어\n마음에 들어요\n사지 님의 게시물\n메인에 올림\n사지\n@Aspirin_4140\n·\n5월 27일\n#겹친소 #문학_트친소 #문탐_트친소 #문학계_트친소 #독서계_트친소\n하지은작가님책이랑 그외 문탐메이저도서(날개 종의기원 위저베 등)랑 동과거 팝니다\n최애캐는 고요 나르치스 기타등등\n수학은 특히 자연수좋아합니다\n취미로 글도쓰고 자캐놀이도해요\n장기팔이소녀와 트친해주세요\n+양자역학 안믿음\n19\n9\n1.1천\n사지\n@Aspirin_4140\n·\n3월 7일\n얼음나무숲 아세요?\nㄴ아니요\n\n단 하나의\nㄴ청중\n\n내게 자네의 그\nㄴ순수를 줘\n\n모토벤의 고결한\nㄴ복수\n\n얼음나무숲 아세요?\nㄴ아니요\n더 보기\n8\n32\n635\n사지\n@Aspirin_4140\n·\n2월 8일\n얼나숲 키세\n1\n20\n29\n1.2천\n사지\n@Aspirin_4140\n·\n2월 8일\n얼나숲읽으면서\n바옐 절친도잇고\n사랑하는여자도있고\n뭔가 이새키 친구많잖아?? 오랜시간관계를쌓아온 주변인이 상당히 많길래\n고요가 이사람들을 이길수잇을까? 어케 마지막엔 다들 오직 고요바옐고요를 외치게되는걸까 싶었는데\n다죽음\n걍 다.죽음\n몰살\n1\n11\n27\n858\n사지\n@Aspirin_4140\n·\n3월 9일\n쟌\n25\n276\n사지\n@Aspirin_4140\n·\n3월 20일\n트친이얼나숲읽고잇어요\n즐거워요\n5\n21\n272\n사지\n@Aspirin_4140\n·\n2023년 11월 4일\n인간의 70%가 물이니까 우리가 물을 마시는 것은 사실상 거의 식인을 하는것과 다름없는 것입니다.\n1\n17\n2.4천\n사지\n@Aspirin_4140\n·\n4월 7일\n애인 사귀는 족족 죽이고 곡뽑아내던 미친살인마음악가가\n곡을 포기하면서까지 안 죽이고 곁에 살려두고싶다고생각하게되는 그런 사람을 만나버려서 혼란스러워하는걸 보고싶다\n2\n18\n212\n사지\n@Aspirin_4140\n·\n3월 9일\n러시아소설특: 맨날 속으로는 극대노하고 온갖생각 망상다하고 일어나지도않은일가지고 내가오늘진짜다죽인다다패버릴거다 이러고 나오는데 정작 실제상황에선 아무것도못하고 쭈굴하게있다가 집에와서 잠이나잠\n3\n16\n274\n사지\n@Aspirin_4140\n·\n2월 8일\n트리키세 ㅋㅋㅋㅋㅋㅋㅋㅋ\n사실안웃김\n9\n16\n949\nX는 처음이신가요?\n지금 가입해서 나에게 맞춤 설정된 타임라인을 만들어 보세요!\nApple에서 가입하기\n계정 만들기\n가입하시려면 쿠키 사용을 포함해 이용약관과 개인정보 처리방침에 동의해야 합니다.\n문제가 발생했습니다. 새로고침해 보세요.\n다시 시도\n이용약관\n개인정보 처리방침\n쿠키 정책\n접근성\n광고 정보\n더 보기\n© 2024 X Corp.']</t>
         </is>
       </c>
     </row>
@@ -702,7 +706,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>['사지\n315 게시물\n팔로우\n팔로우\n사지\n@Aspirin_4140\n당신을 사로잡고 있는 그 한없는 갈망이 무엇인지 모르겠어요\n객석interphase2.postype.com가입일: 2023년 2월\n142 팔로우 중\n138 팔로워\n게시물\n답글\n미디어\n마음에 들어요\n사지 님의 게시물\n메인에 올림\n사지\n@Aspirin_4140\n·\n5월 27일\n#겹친소 #문학_트친소 #문탐_트친소 #문학계_트친소 #독서계_트친소\n하지은작가님책이랑 그외 문탐메이저도서(날개 종의기원 위저베 등)랑 동과거 팝니다\n최애캐는 고요 나르치스 기타등등\n수학은 특히 자연수좋아합니다\n취미로 글도쓰고 자캐놀이도해요\n장기팔이소녀와 트친해주세요\n+양자역학 안믿음\n19\n9\n1.1천\n사지\n@Aspirin_4140\n·\n3월 7일\n얼음나무숲 아세요?\nㄴ아니요\n\n단 하나의\nㄴ청중\n\n내게 자네의 그\nㄴ순수를 줘\n\n모토벤의 고결한\nㄴ복수\n\n얼음나무숲 아세요?\nㄴ아니요\n더 보기\n8\n32\n635\n사지\n@Aspirin_4140\n·\n2월 8일\n얼나숲 키세\n1\n20\n29\n1.2천\n사지\n@Aspirin_4140\n·\n2월 8일\n얼나숲읽으면서\n바옐 절친도잇고\n사랑하는여자도있고\n뭔가 이새키 친구많잖아?? 오랜시간관계를쌓아온 주변인이 상당히 많길래\n고요가 이사람들을 이길수잇을까? 어케 마지막엔 다들 오직 고요바옐고요를 외치게되는걸까 싶었는데\n다죽음\n걍 다.죽음\n몰살\n1\n11\n27\n858\n사지\n@Aspirin_4140\n·\n3월 9일\n쟌\n25\n276\nX는 처음이신가요?\n지금 가입해서 나에게 맞춤 설정된 타임라인을 만들어 보세요!\nApple에서 가입하기\n계정 만들기\n가입하시려면 쿠키 사용을 포함해 이용약관과 개인정보 처리방침에 동의해야 합니다.\n문제가 발생했습니다. 새로고침해 보세요.\n다시 시도\n이용약관\n개인정보 처리방침\n쿠키 정책\n접근성\n광고 정보\n더 보기\n© 2024 X Corp.']</t>
+          <t>['사지\n315 게시물\n팔로우\n팔로우\n사지\n@Aspirin_4140\n당신을 사로잡고 있는 그 한없는 갈망이 무엇인지 모르겠어요\n객석interphase2.postype.com가입일: 2023년 2월\n142 팔로우 중\n138 팔로워\n게시물\n답글\n미디어\n마음에 들어요\n사지 님의 게시물\n메인에 올림\n사지\n@Aspirin_4140\n·\n5월 27일\n#겹친소 #문학_트친소 #문탐_트친소 #문학계_트친소 #독서계_트친소\n하지은작가님책이랑 그외 문탐메이저도서(날개 종의기원 위저베 등)랑 동과거 팝니다\n최애캐는 고요 나르치스 기타등등\n수학은 특히 자연수좋아합니다\n취미로 글도쓰고 자캐놀이도해요\n장기팔이소녀와 트친해주세요\n+양자역학 안믿음\n19\n9\n1.1천\n사지\n@Aspirin_4140\n·\n3월 7일\n얼음나무숲 아세요?\nㄴ아니요\n\n단 하나의\nㄴ청중\n\n내게 자네의 그\nㄴ순수를 줘\n\n모토벤의 고결한\nㄴ복수\n\n얼음나무숲 아세요?\nㄴ아니요\n더 보기\n8\n32\n635\n사지\n@Aspirin_4140\n·\n2월 8일\n얼나숲 키세\n1\n20\n29\n1.2천\n사지\n@Aspirin_4140\n·\n2월 8일\n얼나숲읽으면서\n바옐 절친도잇고\n사랑하는여자도있고\n뭔가 이새키 친구많잖아?? 오랜시간관계를쌓아온 주변인이 상당히 많길래\n고요가 이사람들을 이길수잇을까? 어케 마지막엔 다들 오직 고요바옐고요를 외치게되는걸까 싶었는데\n다죽음\n걍 다.죽음\n몰살\n1\n11\n27\n858\n사지\n@Aspirin_4140\n·\n3월 9일\n쟌\n25\n276\n사지\n@Aspirin_4140\n·\n3월 20일\n트친이얼나숲읽고잇어요\n즐거워요\n5\n21\n272\n사지\n@Aspirin_4140\n·\n2023년 11월 4일\n인간의 70%가 물이니까 우리가 물을 마시는 것은 사실상 거의 식인을 하는것과 다름없는 것입니다.\n1\n17\n2.4천\n사지\n@Aspirin_4140\n·\n4월 7일\n애인 사귀는 족족 죽이고 곡뽑아내던 미친살인마음악가가\n곡을 포기하면서까지 안 죽이고 곁에 살려두고싶다고생각하게되는 그런 사람을 만나버려서 혼란스러워하는걸 보고싶다\n2\n18\n212\n사지\n@Aspirin_4140\n·\n3월 9일\n러시아소설특: 맨날 속으로는 극대노하고 온갖생각 망상다하고 일어나지도않은일가지고 내가오늘진짜다죽인다다패버릴거다 이러고 나오는데 정작 실제상황에선 아무것도못하고 쭈굴하게있다가 집에와서 잠이나잠\n3\n16\n274\n사지\n@Aspirin_4140\n·\n2월 8일\n트리키세 ㅋㅋㅋㅋㅋㅋㅋㅋ\n사실안웃김\n9\n16\n949\nX는 처음이신가요?\n지금 가입해서 나에게 맞춤 설정된 타임라인을 만들어 보세요!\nApple에서 가입하기\n계정 만들기\n가입하시려면 쿠키 사용을 포함해 이용약관과 개인정보 처리방침에 동의해야 합니다.\n문제가 발생했습니다. 새로고침해 보세요.\n다시 시도\n이용약관\n개인정보 처리방침\n쿠키 정책\n접근성\n광고 정보\n더 보기\n© 2024 X Corp.']</t>
         </is>
       </c>
     </row>
@@ -862,7 +866,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>['사지\n315 게시물\n팔로우\n팔로우\n사지\n@Aspirin_4140\n당신을 사로잡고 있는 그 한없는 갈망이 무엇인지 모르겠어요\n객석interphase2.postype.com가입일: 2023년 2월\n142 팔로우 중\n138 팔로워\n게시물\n답글\n미디어\n마음에 들어요\n사지 님의 게시물\n메인에 올림\n사지\n@Aspirin_4140\n·\n5월 27일\n#겹친소 #문학_트친소 #문탐_트친소 #문학계_트친소 #독서계_트친소\n하지은작가님책이랑 그외 문탐메이저도서(날개 종의기원 위저베 등)랑 동과거 팝니다\n최애캐는 고요 나르치스 기타등등\n수학은 특히 자연수좋아합니다\n취미로 글도쓰고 자캐놀이도해요\n장기팔이소녀와 트친해주세요\n+양자역학 안믿음\n19\n9\n1.1천\n사지\n@Aspirin_4140\n·\n3월 7일\n얼음나무숲 아세요?\nㄴ아니요\n\n단 하나의\nㄴ청중\n\n내게 자네의 그\nㄴ순수를 줘\n\n모토벤의 고결한\nㄴ복수\n\n얼음나무숲 아세요?\nㄴ아니요\n더 보기\n8\n32\n635\n사지\n@Aspirin_4140\n·\n2월 8일\n얼나숲 키세\n1\n20\n29\n1.2천\n사지\n@Aspirin_4140\n·\n2월 8일\n얼나숲읽으면서\n바옐 절친도잇고\n사랑하는여자도있고\n뭔가 이새키 친구많잖아?? 오랜시간관계를쌓아온 주변인이 상당히 많길래\n고요가 이사람들을 이길수잇을까? 어케 마지막엔 다들 오직 고요바옐고요를 외치게되는걸까 싶었는데\n다죽음\n걍 다.죽음\n몰살\n1\n11\n27\n858\n사지\n@Aspirin_4140\n·\n3월 9일\n쟌\n25\n276\nX는 처음이신가요?\n지금 가입해서 나에게 맞춤 설정된 타임라인을 만들어 보세요!\nApple에서 가입하기\n계정 만들기\n가입하시려면 쿠키 사용을 포함해 이용약관과 개인정보 처리방침에 동의해야 합니다.\n문제가 발생했습니다. 새로고침해 보세요.\n다시 시도\n이용약관\n개인정보 처리방침\n쿠키 정책\n접근성\n광고 정보\n더 보기\n© 2024 X Corp.']</t>
+          <t>['사지\n315 게시물\n팔로우\n팔로우\n사지\n@Aspirin_4140\n당신을 사로잡고 있는 그 한없는 갈망이 무엇인지 모르겠어요\n객석interphase2.postype.com가입일: 2023년 2월\n142 팔로우 중\n138 팔로워\n게시물\n답글\n미디어\n마음에 들어요\n사지 님의 게시물\n메인에 올림\n사지\n@Aspirin_4140\n·\n5월 27일\n#겹친소 #문학_트친소 #문탐_트친소 #문학계_트친소 #독서계_트친소\n하지은작가님책이랑 그외 문탐메이저도서(날개 종의기원 위저베 등)랑 동과거 팝니다\n최애캐는 고요 나르치스 기타등등\n수학은 특히 자연수좋아합니다\n취미로 글도쓰고 자캐놀이도해요\n장기팔이소녀와 트친해주세요\n+양자역학 안믿음\n19\n9\n1.1천\n사지\n@Aspirin_4140\n·\n3월 7일\n얼음나무숲 아세요?\nㄴ아니요\n\n단 하나의\nㄴ청중\n\n내게 자네의 그\nㄴ순수를 줘\n\n모토벤의 고결한\nㄴ복수\n\n얼음나무숲 아세요?\nㄴ아니요\n더 보기\n8\n32\n635\n사지\n@Aspirin_4140\n·\n2월 8일\n얼나숲 키세\n1\n20\n29\n1.2천\n사지\n@Aspirin_4140\n·\n2월 8일\n얼나숲읽으면서\n바옐 절친도잇고\n사랑하는여자도있고\n뭔가 이새키 친구많잖아?? 오랜시간관계를쌓아온 주변인이 상당히 많길래\n고요가 이사람들을 이길수잇을까? 어케 마지막엔 다들 오직 고요바옐고요를 외치게되는걸까 싶었는데\n다죽음\n걍 다.죽음\n몰살\n1\n11\n27\n858\n사지\n@Aspirin_4140\n·\n3월 9일\n쟌\n25\n276\n사지\n@Aspirin_4140\n·\n3월 20일\n트친이얼나숲읽고잇어요\n즐거워요\n5\n21\n272\n사지\n@Aspirin_4140\n·\n2023년 11월 4일\n인간의 70%가 물이니까 우리가 물을 마시는 것은 사실상 거의 식인을 하는것과 다름없는 것입니다.\n1\n17\n2.4천\n사지\n@Aspirin_4140\n·\n4월 7일\n애인 사귀는 족족 죽이고 곡뽑아내던 미친살인마음악가가\n곡을 포기하면서까지 안 죽이고 곁에 살려두고싶다고생각하게되는 그런 사람을 만나버려서 혼란스러워하는걸 보고싶다\n2\n18\n212\n사지\n@Aspirin_4140\n·\n3월 9일\n러시아소설특: 맨날 속으로는 극대노하고 온갖생각 망상다하고 일어나지도않은일가지고 내가오늘진짜다죽인다다패버릴거다 이러고 나오는데 정작 실제상황에선 아무것도못하고 쭈굴하게있다가 집에와서 잠이나잠\n3\n16\n274\n사지\n@Aspirin_4140\n·\n2월 8일\n트리키세 ㅋㅋㅋㅋㅋㅋㅋㅋ\n사실안웃김\n9\n16\n949\nX는 처음이신가요?\n지금 가입해서 나에게 맞춤 설정된 타임라인을 만들어 보세요!\nApple에서 가입하기\n계정 만들기\n가입하시려면 쿠키 사용을 포함해 이용약관과 개인정보 처리방침에 동의해야 합니다.\n문제가 발생했습니다. 새로고침해 보세요.\n다시 시도\n이용약관\n개인정보 처리방침\n쿠키 정책\n접근성\n광고 정보\n더 보기\n© 2024 X Corp.']</t>
         </is>
       </c>
     </row>
@@ -872,7 +876,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>['사지\n315 게시물\n팔로우\n팔로우\n사지\n@Aspirin_4140\n당신을 사로잡고 있는 그 한없는 갈망이 무엇인지 모르겠어요\n객석interphase2.postype.com가입일: 2023년 2월\n142 팔로우 중\n138 팔로워\n게시물\n답글\n미디어\n마음에 들어요\n사지 님의 게시물\n메인에 올림\n사지\n@Aspirin_4140\n·\n5월 27일\n#겹친소 #문학_트친소 #문탐_트친소 #문학계_트친소 #독서계_트친소\n하지은작가님책이랑 그외 문탐메이저도서(날개 종의기원 위저베 등)랑 동과거 팝니다\n최애캐는 고요 나르치스 기타등등\n수학은 특히 자연수좋아합니다\n취미로 글도쓰고 자캐놀이도해요\n장기팔이소녀와 트친해주세요\n+양자역학 안믿음\n19\n9\n1.1천\n사지\n@Aspirin_4140\n·\n3월 7일\n얼음나무숲 아세요?\nㄴ아니요\n\n단 하나의\nㄴ청중\n\n내게 자네의 그\nㄴ순수를 줘\n\n모토벤의 고결한\nㄴ복수\n\n얼음나무숲 아세요?\nㄴ아니요\n더 보기\n8\n32\n635\n사지\n@Aspirin_4140\n·\n2월 8일\n얼나숲 키세\n1\n20\n29\n1.2천\n사지\n@Aspirin_4140\n·\n2월 8일\n얼나숲읽으면서\n바옐 절친도잇고\n사랑하는여자도있고\n뭔가 이새키 친구많잖아?? 오랜시간관계를쌓아온 주변인이 상당히 많길래\n고요가 이사람들을 이길수잇을까? 어케 마지막엔 다들 오직 고요바옐고요를 외치게되는걸까 싶었는데\n다죽음\n걍 다.죽음\n몰살\n1\n11\n27\n858\n사지\n@Aspirin_4140\n·\n3월 9일\n쟌\n25\n276\nX는 처음이신가요?\n지금 가입해서 나에게 맞춤 설정된 타임라인을 만들어 보세요!\nApple에서 가입하기\n계정 만들기\n가입하시려면 쿠키 사용을 포함해 이용약관과 개인정보 처리방침에 동의해야 합니다.\n문제가 발생했습니다. 새로고침해 보세요.\n다시 시도\n이용약관\n개인정보 처리방침\n쿠키 정책\n접근성\n광고 정보\n더 보기\n© 2024 X Corp.']</t>
+          <t>['사지\n315 게시물\n팔로우\n팔로우\n사지\n@Aspirin_4140\n당신을 사로잡고 있는 그 한없는 갈망이 무엇인지 모르겠어요\n객석interphase2.postype.com가입일: 2023년 2월\n142 팔로우 중\n138 팔로워\n게시물\n답글\n미디어\n마음에 들어요\n사지 님의 게시물\n메인에 올림\n사지\n@Aspirin_4140\n·\n5월 27일\n#겹친소 #문학_트친소 #문탐_트친소 #문학계_트친소 #독서계_트친소\n하지은작가님책이랑 그외 문탐메이저도서(날개 종의기원 위저베 등)랑 동과거 팝니다\n최애캐는 고요 나르치스 기타등등\n수학은 특히 자연수좋아합니다\n취미로 글도쓰고 자캐놀이도해요\n장기팔이소녀와 트친해주세요\n+양자역학 안믿음\n19\n9\n1.1천\n사지\n@Aspirin_4140\n·\n3월 7일\n얼음나무숲 아세요?\nㄴ아니요\n\n단 하나의\nㄴ청중\n\n내게 자네의 그\nㄴ순수를 줘\n\n모토벤의 고결한\nㄴ복수\n\n얼음나무숲 아세요?\nㄴ아니요\n더 보기\n8\n32\n635\n사지\n@Aspirin_4140\n·\n2월 8일\n얼나숲 키세\n1\n20\n29\n1.2천\n사지\n@Aspirin_4140\n·\n2월 8일\n얼나숲읽으면서\n바옐 절친도잇고\n사랑하는여자도있고\n뭔가 이새키 친구많잖아?? 오랜시간관계를쌓아온 주변인이 상당히 많길래\n고요가 이사람들을 이길수잇을까? 어케 마지막엔 다들 오직 고요바옐고요를 외치게되는걸까 싶었는데\n다죽음\n걍 다.죽음\n몰살\n1\n11\n27\n858\n사지\n@Aspirin_4140\n·\n3월 9일\n쟌\n25\n276\n사지\n@Aspirin_4140\n·\n3월 20일\n트친이얼나숲읽고잇어요\n즐거워요\n5\n21\n272\n사지\n@Aspirin_4140\n·\n2023년 11월 4일\n인간의 70%가 물이니까 우리가 물을 마시는 것은 사실상 거의 식인을 하는것과 다름없는 것입니다.\n1\n17\n2.4천\n사지\n@Aspirin_4140\n·\n4월 7일\n애인 사귀는 족족 죽이고 곡뽑아내던 미친살인마음악가가\n곡을 포기하면서까지 안 죽이고 곁에 살려두고싶다고생각하게되는 그런 사람을 만나버려서 혼란스러워하는걸 보고싶다\n2\n18\n212\n사지\n@Aspirin_4140\n·\n3월 9일\n러시아소설특: 맨날 속으로는 극대노하고 온갖생각 망상다하고 일어나지도않은일가지고 내가오늘진짜다죽인다다패버릴거다 이러고 나오는데 정작 실제상황에선 아무것도못하고 쭈굴하게있다가 집에와서 잠이나잠\n3\n16\n274\n사지\n@Aspirin_4140\n·\n2월 8일\n트리키세 ㅋㅋㅋㅋㅋㅋㅋㅋ\n사실안웃김\n9\n16\n949\nX는 처음이신가요?\n지금 가입해서 나에게 맞춤 설정된 타임라인을 만들어 보세요!\nApple에서 가입하기\n계정 만들기\n가입하시려면 쿠키 사용을 포함해 이용약관과 개인정보 처리방침에 동의해야 합니다.\n문제가 발생했습니다. 새로고침해 보세요.\n다시 시도\n이용약관\n개인정보 처리방침\n쿠키 정책\n접근성\n광고 정보\n더 보기\n© 2024 X Corp.']</t>
         </is>
       </c>
     </row>
@@ -882,7 +886,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>['사지\n315 게시물\n팔로우\n팔로우\n사지\n@Aspirin_4140\n당신을 사로잡고 있는 그 한없는 갈망이 무엇인지 모르겠어요\n객석interphase2.postype.com가입일: 2023년 2월\n142 팔로우 중\n138 팔로워\n게시물\n답글\n미디어\n마음에 들어요\n사지 님의 게시물\n메인에 올림\n사지\n@Aspirin_4140\n·\n5월 27일\n#겹친소 #문학_트친소 #문탐_트친소 #문학계_트친소 #독서계_트친소\n하지은작가님책이랑 그외 문탐메이저도서(날개 종의기원 위저베 등)랑 동과거 팝니다\n최애캐는 고요 나르치스 기타등등\n수학은 특히 자연수좋아합니다\n취미로 글도쓰고 자캐놀이도해요\n장기팔이소녀와 트친해주세요\n+양자역학 안믿음\n19\n9\n1.1천\n사지\n@Aspirin_4140\n·\n3월 7일\n얼음나무숲 아세요?\nㄴ아니요\n\n단 하나의\nㄴ청중\n\n내게 자네의 그\nㄴ순수를 줘\n\n모토벤의 고결한\nㄴ복수\n\n얼음나무숲 아세요?\nㄴ아니요\n더 보기\n8\n32\n635\n사지\n@Aspirin_4140\n·\n2월 8일\n얼나숲 키세\n1\n20\n29\n1.2천\n사지\n@Aspirin_4140\n·\n2월 8일\n얼나숲읽으면서\n바옐 절친도잇고\n사랑하는여자도있고\n뭔가 이새키 친구많잖아?? 오랜시간관계를쌓아온 주변인이 상당히 많길래\n고요가 이사람들을 이길수잇을까? 어케 마지막엔 다들 오직 고요바옐고요를 외치게되는걸까 싶었는데\n다죽음\n걍 다.죽음\n몰살\n1\n11\n27\n858\n사지\n@Aspirin_4140\n·\n3월 9일\n쟌\n25\n276\nX는 처음이신가요?\n지금 가입해서 나에게 맞춤 설정된 타임라인을 만들어 보세요!\nApple에서 가입하기\n계정 만들기\n가입하시려면 쿠키 사용을 포함해 이용약관과 개인정보 처리방침에 동의해야 합니다.\n문제가 발생했습니다. 새로고침해 보세요.\n다시 시도\n이용약관\n개인정보 처리방침\n쿠키 정책\n접근성\n광고 정보\n더 보기\n© 2024 X Corp.']</t>
+          <t>['사지\n315 게시물\n팔로우\n팔로우\n사지\n@Aspirin_4140\n당신을 사로잡고 있는 그 한없는 갈망이 무엇인지 모르겠어요\n객석interphase2.postype.com가입일: 2023년 2월\n142 팔로우 중\n138 팔로워\n게시물\n답글\n미디어\n마음에 들어요\n사지 님의 게시물\n메인에 올림\n사지\n@Aspirin_4140\n·\n5월 27일\n#겹친소 #문학_트친소 #문탐_트친소 #문학계_트친소 #독서계_트친소\n하지은작가님책이랑 그외 문탐메이저도서(날개 종의기원 위저베 등)랑 동과거 팝니다\n최애캐는 고요 나르치스 기타등등\n수학은 특히 자연수좋아합니다\n취미로 글도쓰고 자캐놀이도해요\n장기팔이소녀와 트친해주세요\n+양자역학 안믿음\n19\n9\n1.1천\n사지\n@Aspirin_4140\n·\n3월 7일\n얼음나무숲 아세요?\nㄴ아니요\n\n단 하나의\nㄴ청중\n\n내게 자네의 그\nㄴ순수를 줘\n\n모토벤의 고결한\nㄴ복수\n\n얼음나무숲 아세요?\nㄴ아니요\n더 보기\n8\n32\n635\n사지\n@Aspirin_4140\n·\n2월 8일\n얼나숲 키세\n1\n20\n29\n1.2천\n사지\n@Aspirin_4140\n·\n2월 8일\n얼나숲읽으면서\n바옐 절친도잇고\n사랑하는여자도있고\n뭔가 이새키 친구많잖아?? 오랜시간관계를쌓아온 주변인이 상당히 많길래\n고요가 이사람들을 이길수잇을까? 어케 마지막엔 다들 오직 고요바옐고요를 외치게되는걸까 싶었는데\n다죽음\n걍 다.죽음\n몰살\n1\n11\n27\n858\n사지\n@Aspirin_4140\n·\n3월 9일\n쟌\n25\n276\n사지\n@Aspirin_4140\n·\n3월 20일\n트친이얼나숲읽고잇어요\n즐거워요\n5\n21\n272\n사지\n@Aspirin_4140\n·\n2023년 11월 4일\n인간의 70%가 물이니까 우리가 물을 마시는 것은 사실상 거의 식인을 하는것과 다름없는 것입니다.\n1\n17\n2.4천\n사지\n@Aspirin_4140\n·\n4월 7일\n애인 사귀는 족족 죽이고 곡뽑아내던 미친살인마음악가가\n곡을 포기하면서까지 안 죽이고 곁에 살려두고싶다고생각하게되는 그런 사람을 만나버려서 혼란스러워하는걸 보고싶다\n2\n18\n212\n사지\n@Aspirin_4140\n·\n3월 9일\n러시아소설특: 맨날 속으로는 극대노하고 온갖생각 망상다하고 일어나지도않은일가지고 내가오늘진짜다죽인다다패버릴거다 이러고 나오는데 정작 실제상황에선 아무것도못하고 쭈굴하게있다가 집에와서 잠이나잠\n3\n16\n274\n사지\n@Aspirin_4140\n·\n2월 8일\n트리키세 ㅋㅋㅋㅋㅋㅋㅋㅋ\n사실안웃김\n9\n16\n949\nX는 처음이신가요?\n지금 가입해서 나에게 맞춤 설정된 타임라인을 만들어 보세요!\nApple에서 가입하기\n계정 만들기\n가입하시려면 쿠키 사용을 포함해 이용약관과 개인정보 처리방침에 동의해야 합니다.\n문제가 발생했습니다. 새로고침해 보세요.\n다시 시도\n이용약관\n개인정보 처리방침\n쿠키 정책\n접근성\n광고 정보\n더 보기\n© 2024 X Corp.']</t>
         </is>
       </c>
     </row>
@@ -892,7 +896,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>['사지\n315 게시물\n팔로우\n팔로우\n사지\n@Aspirin_4140\n당신을 사로잡고 있는 그 한없는 갈망이 무엇인지 모르겠어요\n객석interphase2.postype.com가입일: 2023년 2월\n142 팔로우 중\n138 팔로워\n게시물\n답글\n미디어\n마음에 들어요\n사지 님의 게시물\n메인에 올림\n사지\n@Aspirin_4140\n·\n5월 27일\n#겹친소 #문학_트친소 #문탐_트친소 #문학계_트친소 #독서계_트친소\n하지은작가님책이랑 그외 문탐메이저도서(날개 종의기원 위저베 등)랑 동과거 팝니다\n최애캐는 고요 나르치스 기타등등\n수학은 특히 자연수좋아합니다\n취미로 글도쓰고 자캐놀이도해요\n장기팔이소녀와 트친해주세요\n+양자역학 안믿음\n19\n9\n1.1천\n사지\n@Aspirin_4140\n·\n3월 7일\n얼음나무숲 아세요?\nㄴ아니요\n\n단 하나의\nㄴ청중\n\n내게 자네의 그\nㄴ순수를 줘\n\n모토벤의 고결한\nㄴ복수\n\n얼음나무숲 아세요?\nㄴ아니요\n더 보기\n8\n32\n635\n사지\n@Aspirin_4140\n·\n2월 8일\n얼나숲 키세\n1\n20\n29\n1.2천\n사지\n@Aspirin_4140\n·\n2월 8일\n얼나숲읽으면서\n바옐 절친도잇고\n사랑하는여자도있고\n뭔가 이새키 친구많잖아?? 오랜시간관계를쌓아온 주변인이 상당히 많길래\n고요가 이사람들을 이길수잇을까? 어케 마지막엔 다들 오직 고요바옐고요를 외치게되는걸까 싶었는데\n다죽음\n걍 다.죽음\n몰살\n1\n11\n27\n858\n사지\n@Aspirin_4140\n·\n3월 9일\n쟌\n25\n276\nX는 처음이신가요?\n지금 가입해서 나에게 맞춤 설정된 타임라인을 만들어 보세요!\nApple에서 가입하기\n계정 만들기\n가입하시려면 쿠키 사용을 포함해 이용약관과 개인정보 처리방침에 동의해야 합니다.\n문제가 발생했습니다. 새로고침해 보세요.\n다시 시도\n이용약관\n개인정보 처리방침\n쿠키 정책\n접근성\n광고 정보\n더 보기\n© 2024 X Corp.']</t>
+          <t>['사지\n315 게시물\n팔로우\n팔로우\n사지\n@Aspirin_4140\n당신을 사로잡고 있는 그 한없는 갈망이 무엇인지 모르겠어요\n객석interphase2.postype.com가입일: 2023년 2월\n142 팔로우 중\n138 팔로워\n게시물\n답글\n미디어\n마음에 들어요\n사지 님의 게시물\n메인에 올림\n사지\n@Aspirin_4140\n·\n5월 27일\n#겹친소 #문학_트친소 #문탐_트친소 #문학계_트친소 #독서계_트친소\n하지은작가님책이랑 그외 문탐메이저도서(날개 종의기원 위저베 등)랑 동과거 팝니다\n최애캐는 고요 나르치스 기타등등\n수학은 특히 자연수좋아합니다\n취미로 글도쓰고 자캐놀이도해요\n장기팔이소녀와 트친해주세요\n+양자역학 안믿음\n19\n9\n1.1천\n사지\n@Aspirin_4140\n·\n3월 7일\n얼음나무숲 아세요?\nㄴ아니요\n\n단 하나의\nㄴ청중\n\n내게 자네의 그\nㄴ순수를 줘\n\n모토벤의 고결한\nㄴ복수\n\n얼음나무숲 아세요?\nㄴ아니요\n더 보기\n8\n32\n635\n사지\n@Aspirin_4140\n·\n2월 8일\n얼나숲 키세\n1\n20\n29\n1.2천\n사지\n@Aspirin_4140\n·\n2월 8일\n얼나숲읽으면서\n바옐 절친도잇고\n사랑하는여자도있고\n뭔가 이새키 친구많잖아?? 오랜시간관계를쌓아온 주변인이 상당히 많길래\n고요가 이사람들을 이길수잇을까? 어케 마지막엔 다들 오직 고요바옐고요를 외치게되는걸까 싶었는데\n다죽음\n걍 다.죽음\n몰살\n1\n11\n27\n858\n사지\n@Aspirin_4140\n·\n3월 9일\n쟌\n25\n276\n사지\n@Aspirin_4140\n·\n3월 20일\n트친이얼나숲읽고잇어요\n즐거워요\n5\n21\n272\n사지\n@Aspirin_4140\n·\n2023년 11월 4일\n인간의 70%가 물이니까 우리가 물을 마시는 것은 사실상 거의 식인을 하는것과 다름없는 것입니다.\n1\n17\n2.4천\n사지\n@Aspirin_4140\n·\n4월 7일\n애인 사귀는 족족 죽이고 곡뽑아내던 미친살인마음악가가\n곡을 포기하면서까지 안 죽이고 곁에 살려두고싶다고생각하게되는 그런 사람을 만나버려서 혼란스러워하는걸 보고싶다\n2\n18\n212\n사지\n@Aspirin_4140\n·\n3월 9일\n러시아소설특: 맨날 속으로는 극대노하고 온갖생각 망상다하고 일어나지도않은일가지고 내가오늘진짜다죽인다다패버릴거다 이러고 나오는데 정작 실제상황에선 아무것도못하고 쭈굴하게있다가 집에와서 잠이나잠\n3\n16\n274\n사지\n@Aspirin_4140\n·\n2월 8일\n트리키세 ㅋㅋㅋㅋㅋㅋㅋㅋ\n사실안웃김\n9\n16\n949\nX는 처음이신가요?\n지금 가입해서 나에게 맞춤 설정된 타임라인을 만들어 보세요!\nApple에서 가입하기\n계정 만들기\n가입하시려면 쿠키 사용을 포함해 이용약관과 개인정보 처리방침에 동의해야 합니다.\n문제가 발생했습니다. 새로고침해 보세요.\n다시 시도\n이용약관\n개인정보 처리방침\n쿠키 정책\n접근성\n광고 정보\n더 보기\n© 2024 X Corp.']</t>
         </is>
       </c>
     </row>
@@ -902,7 +906,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>['사지\n315 게시물\n팔로우\n팔로우\n사지\n@Aspirin_4140\n당신을 사로잡고 있는 그 한없는 갈망이 무엇인지 모르겠어요\n객석interphase2.postype.com가입일: 2023년 2월\n142 팔로우 중\n138 팔로워\n게시물\n답글\n미디어\n마음에 들어요\n사지 님의 게시물\n메인에 올림\n사지\n@Aspirin_4140\n·\n5월 27일\n#겹친소 #문학_트친소 #문탐_트친소 #문학계_트친소 #독서계_트친소\n하지은작가님책이랑 그외 문탐메이저도서(날개 종의기원 위저베 등)랑 동과거 팝니다\n최애캐는 고요 나르치스 기타등등\n수학은 특히 자연수좋아합니다\n취미로 글도쓰고 자캐놀이도해요\n장기팔이소녀와 트친해주세요\n+양자역학 안믿음\n19\n9\n1.1천\n사지\n@Aspirin_4140\n·\n3월 7일\n얼음나무숲 아세요?\nㄴ아니요\n\n단 하나의\nㄴ청중\n\n내게 자네의 그\nㄴ순수를 줘\n\n모토벤의 고결한\nㄴ복수\n\n얼음나무숲 아세요?\nㄴ아니요\n더 보기\n8\n32\n635\n사지\n@Aspirin_4140\n·\n2월 8일\n얼나숲 키세\n1\n20\n29\n1.2천\n사지\n@Aspirin_4140\n·\n2월 8일\n얼나숲읽으면서\n바옐 절친도잇고\n사랑하는여자도있고\n뭔가 이새키 친구많잖아?? 오랜시간관계를쌓아온 주변인이 상당히 많길래\n고요가 이사람들을 이길수잇을까? 어케 마지막엔 다들 오직 고요바옐고요를 외치게되는걸까 싶었는데\n다죽음\n걍 다.죽음\n몰살\n1\n11\n27\n858\n사지\n@Aspirin_4140\n·\n3월 9일\n쟌\n25\n276']</t>
+          <t>['사지\n315 게시물\n팔로우\n팔로우\n사지\n@Aspirin_4140\n당신을 사로잡고 있는 그 한없는 갈망이 무엇인지 모르겠어요\n객석interphase2.postype.com가입일: 2023년 2월\n142 팔로우 중\n138 팔로워\n게시물\n답글\n미디어\n마음에 들어요\n사지 님의 게시물\n메인에 올림\n사지\n@Aspirin_4140\n·\n5월 27일\n#겹친소 #문학_트친소 #문탐_트친소 #문학계_트친소 #독서계_트친소\n하지은작가님책이랑 그외 문탐메이저도서(날개 종의기원 위저베 등)랑 동과거 팝니다\n최애캐는 고요 나르치스 기타등등\n수학은 특히 자연수좋아합니다\n취미로 글도쓰고 자캐놀이도해요\n장기팔이소녀와 트친해주세요\n+양자역학 안믿음\n19\n9\n1.1천\n사지\n@Aspirin_4140\n·\n3월 7일\n얼음나무숲 아세요?\nㄴ아니요\n\n단 하나의\nㄴ청중\n\n내게 자네의 그\nㄴ순수를 줘\n\n모토벤의 고결한\nㄴ복수\n\n얼음나무숲 아세요?\nㄴ아니요\n더 보기\n8\n32\n635\n사지\n@Aspirin_4140\n·\n2월 8일\n얼나숲 키세\n1\n20\n29\n1.2천\n사지\n@Aspirin_4140\n·\n2월 8일\n얼나숲읽으면서\n바옐 절친도잇고\n사랑하는여자도있고\n뭔가 이새키 친구많잖아?? 오랜시간관계를쌓아온 주변인이 상당히 많길래\n고요가 이사람들을 이길수잇을까? 어케 마지막엔 다들 오직 고요바옐고요를 외치게되는걸까 싶었는데\n다죽음\n걍 다.죽음\n몰살\n1\n11\n27\n858\n사지\n@Aspirin_4140\n·\n3월 9일\n쟌\n25\n276\n사지\n@Aspirin_4140\n·\n3월 20일\n트친이얼나숲읽고잇어요\n즐거워요\n5\n21\n272\n사지\n@Aspirin_4140\n·\n2023년 11월 4일\n인간의 70%가 물이니까 우리가 물을 마시는 것은 사실상 거의 식인을 하는것과 다름없는 것입니다.\n1\n17\n2.4천\n사지\n@Aspirin_4140\n·\n4월 7일\n애인 사귀는 족족 죽이고 곡뽑아내던 미친살인마음악가가\n곡을 포기하면서까지 안 죽이고 곁에 살려두고싶다고생각하게되는 그런 사람을 만나버려서 혼란스러워하는걸 보고싶다\n2\n18\n212\n사지\n@Aspirin_4140\n·\n3월 9일\n러시아소설특: 맨날 속으로는 극대노하고 온갖생각 망상다하고 일어나지도않은일가지고 내가오늘진짜다죽인다다패버릴거다 이러고 나오는데 정작 실제상황에선 아무것도못하고 쭈굴하게있다가 집에와서 잠이나잠\n3\n16\n274\n사지\n@Aspirin_4140\n·\n2월 8일\n트리키세 ㅋㅋㅋㅋㅋㅋㅋㅋ\n사실안웃김\n9\n16\n949']</t>
         </is>
       </c>
     </row>
@@ -912,7 +916,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>['사지\n315 게시물\n팔로우\n팔로우\n사지\n@Aspirin_4140\n당신을 사로잡고 있는 그 한없는 갈망이 무엇인지 모르겠어요\n객석interphase2.postype.com가입일: 2023년 2월\n142 팔로우 중\n138 팔로워\n게시물\n답글\n미디어\n마음에 들어요\n사지 님의 게시물\n메인에 올림\n사지\n@Aspirin_4140\n·\n5월 27일\n#겹친소 #문학_트친소 #문탐_트친소 #문학계_트친소 #독서계_트친소\n하지은작가님책이랑 그외 문탐메이저도서(날개 종의기원 위저베 등)랑 동과거 팝니다\n최애캐는 고요 나르치스 기타등등\n수학은 특히 자연수좋아합니다\n취미로 글도쓰고 자캐놀이도해요\n장기팔이소녀와 트친해주세요\n+양자역학 안믿음\n19\n9\n1.1천\n사지\n@Aspirin_4140\n·\n3월 7일\n얼음나무숲 아세요?\nㄴ아니요\n\n단 하나의\nㄴ청중\n\n내게 자네의 그\nㄴ순수를 줘\n\n모토벤의 고결한\nㄴ복수\n\n얼음나무숲 아세요?\nㄴ아니요\n더 보기\n8\n32\n635\n사지\n@Aspirin_4140\n·\n2월 8일\n얼나숲 키세\n1\n20\n29\n1.2천\n사지\n@Aspirin_4140\n·\n2월 8일\n얼나숲읽으면서\n바옐 절친도잇고\n사랑하는여자도있고\n뭔가 이새키 친구많잖아?? 오랜시간관계를쌓아온 주변인이 상당히 많길래\n고요가 이사람들을 이길수잇을까? 어케 마지막엔 다들 오직 고요바옐고요를 외치게되는걸까 싶었는데\n다죽음\n걍 다.죽음\n몰살\n1\n11\n27\n858\n사지\n@Aspirin_4140\n·\n3월 9일\n쟌\n25\n276']</t>
+          <t>['사지\n315 게시물\n팔로우\n팔로우\n사지\n@Aspirin_4140\n당신을 사로잡고 있는 그 한없는 갈망이 무엇인지 모르겠어요\n객석interphase2.postype.com가입일: 2023년 2월\n142 팔로우 중\n138 팔로워\n게시물\n답글\n미디어\n마음에 들어요\n사지 님의 게시물\n메인에 올림\n사지\n@Aspirin_4140\n·\n5월 27일\n#겹친소 #문학_트친소 #문탐_트친소 #문학계_트친소 #독서계_트친소\n하지은작가님책이랑 그외 문탐메이저도서(날개 종의기원 위저베 등)랑 동과거 팝니다\n최애캐는 고요 나르치스 기타등등\n수학은 특히 자연수좋아합니다\n취미로 글도쓰고 자캐놀이도해요\n장기팔이소녀와 트친해주세요\n+양자역학 안믿음\n19\n9\n1.1천\n사지\n@Aspirin_4140\n·\n3월 7일\n얼음나무숲 아세요?\nㄴ아니요\n\n단 하나의\nㄴ청중\n\n내게 자네의 그\nㄴ순수를 줘\n\n모토벤의 고결한\nㄴ복수\n\n얼음나무숲 아세요?\nㄴ아니요\n더 보기\n8\n32\n635\n사지\n@Aspirin_4140\n·\n2월 8일\n얼나숲 키세\n1\n20\n29\n1.2천\n사지\n@Aspirin_4140\n·\n2월 8일\n얼나숲읽으면서\n바옐 절친도잇고\n사랑하는여자도있고\n뭔가 이새키 친구많잖아?? 오랜시간관계를쌓아온 주변인이 상당히 많길래\n고요가 이사람들을 이길수잇을까? 어케 마지막엔 다들 오직 고요바옐고요를 외치게되는걸까 싶었는데\n다죽음\n걍 다.죽음\n몰살\n1\n11\n27\n858\n사지\n@Aspirin_4140\n·\n3월 9일\n쟌\n25\n276\n사지\n@Aspirin_4140\n·\n3월 20일\n트친이얼나숲읽고잇어요\n즐거워요\n5\n21\n272\n사지\n@Aspirin_4140\n·\n2023년 11월 4일\n인간의 70%가 물이니까 우리가 물을 마시는 것은 사실상 거의 식인을 하는것과 다름없는 것입니다.\n1\n17\n2.4천\n사지\n@Aspirin_4140\n·\n4월 7일\n애인 사귀는 족족 죽이고 곡뽑아내던 미친살인마음악가가\n곡을 포기하면서까지 안 죽이고 곁에 살려두고싶다고생각하게되는 그런 사람을 만나버려서 혼란스러워하는걸 보고싶다\n2\n18\n212\n사지\n@Aspirin_4140\n·\n3월 9일\n러시아소설특: 맨날 속으로는 극대노하고 온갖생각 망상다하고 일어나지도않은일가지고 내가오늘진짜다죽인다다패버릴거다 이러고 나오는데 정작 실제상황에선 아무것도못하고 쭈굴하게있다가 집에와서 잠이나잠\n3\n16\n274\n사지\n@Aspirin_4140\n·\n2월 8일\n트리키세 ㅋㅋㅋㅋㅋㅋㅋㅋ\n사실안웃김\n9\n16\n949']</t>
         </is>
       </c>
     </row>
@@ -1172,7 +1176,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>['팔로우\n사지\n@Aspirin_4140\n당신을 사로잡고 있는 그 한없는 갈망이 무엇인지 모르겠어요\n객석interphase2.postype.com가입일: 2023년 2월\n142 팔로우 중\n138 팔로워\n게시물\n답글\n미디어\n마음에 들어요\n사지 님의 게시물\n메인에 올림\n사지\n@Aspirin_4140\n·\n5월 27일\n#겹친소 #문학_트친소 #문탐_트친소 #문학계_트친소 #독서계_트친소\n하지은작가님책이랑 그외 문탐메이저도서(날개 종의기원 위저베 등)랑 동과거 팝니다\n최애캐는 고요 나르치스 기타등등\n수학은 특히 자연수좋아합니다\n취미로 글도쓰고 자캐놀이도해요\n장기팔이소녀와 트친해주세요\n+양자역학 안믿음\n19\n9\n1.1천\n사지\n@Aspirin_4140\n·\n3월 7일\n얼음나무숲 아세요?\nㄴ아니요\n\n단 하나의\nㄴ청중\n\n내게 자네의 그\nㄴ순수를 줘\n\n모토벤의 고결한\nㄴ복수\n\n얼음나무숲 아세요?\nㄴ아니요\n더 보기\n8\n32\n635\n사지\n@Aspirin_4140\n·\n2월 8일\n얼나숲 키세\n1\n20\n29\n1.2천\n사지\n@Aspirin_4140\n·\n2월 8일\n얼나숲읽으면서\n바옐 절친도잇고\n사랑하는여자도있고\n뭔가 이새키 친구많잖아?? 오랜시간관계를쌓아온 주변인이 상당히 많길래\n고요가 이사람들을 이길수잇을까? 어케 마지막엔 다들 오직 고요바옐고요를 외치게되는걸까 싶었는데\n다죽음\n걍 다.죽음\n몰살\n1\n11\n27\n858\n사지\n@Aspirin_4140\n·\n3월 9일\n쟌\n25\n276']</t>
+          <t>['팔로우\n사지\n@Aspirin_4140\n당신을 사로잡고 있는 그 한없는 갈망이 무엇인지 모르겠어요\n객석interphase2.postype.com가입일: 2023년 2월\n142 팔로우 중\n138 팔로워\n게시물\n답글\n미디어\n마음에 들어요\n사지 님의 게시물\n메인에 올림\n사지\n@Aspirin_4140\n·\n5월 27일\n#겹친소 #문학_트친소 #문탐_트친소 #문학계_트친소 #독서계_트친소\n하지은작가님책이랑 그외 문탐메이저도서(날개 종의기원 위저베 등)랑 동과거 팝니다\n최애캐는 고요 나르치스 기타등등\n수학은 특히 자연수좋아합니다\n취미로 글도쓰고 자캐놀이도해요\n장기팔이소녀와 트친해주세요\n+양자역학 안믿음\n19\n9\n1.1천\n사지\n@Aspirin_4140\n·\n3월 7일\n얼음나무숲 아세요?\nㄴ아니요\n\n단 하나의\nㄴ청중\n\n내게 자네의 그\nㄴ순수를 줘\n\n모토벤의 고결한\nㄴ복수\n\n얼음나무숲 아세요?\nㄴ아니요\n더 보기\n8\n32\n635\n사지\n@Aspirin_4140\n·\n2월 8일\n얼나숲 키세\n1\n20\n29\n1.2천\n사지\n@Aspirin_4140\n·\n2월 8일\n얼나숲읽으면서\n바옐 절친도잇고\n사랑하는여자도있고\n뭔가 이새키 친구많잖아?? 오랜시간관계를쌓아온 주변인이 상당히 많길래\n고요가 이사람들을 이길수잇을까? 어케 마지막엔 다들 오직 고요바옐고요를 외치게되는걸까 싶었는데\n다죽음\n걍 다.죽음\n몰살\n1\n11\n27\n858\n사지\n@Aspirin_4140\n·\n3월 9일\n쟌\n25\n276\n사지\n@Aspirin_4140\n·\n3월 20일\n트친이얼나숲읽고잇어요\n즐거워요\n5\n21\n272\n사지\n@Aspirin_4140\n·\n2023년 11월 4일\n인간의 70%가 물이니까 우리가 물을 마시는 것은 사실상 거의 식인을 하는것과 다름없는 것입니다.\n1\n17\n2.4천\n사지\n@Aspirin_4140\n·\n4월 7일\n애인 사귀는 족족 죽이고 곡뽑아내던 미친살인마음악가가\n곡을 포기하면서까지 안 죽이고 곁에 살려두고싶다고생각하게되는 그런 사람을 만나버려서 혼란스러워하는걸 보고싶다\n2\n18\n212\n사지\n@Aspirin_4140\n·\n3월 9일\n러시아소설특: 맨날 속으로는 극대노하고 온갖생각 망상다하고 일어나지도않은일가지고 내가오늘진짜다죽인다다패버릴거다 이러고 나오는데 정작 실제상황에선 아무것도못하고 쭈굴하게있다가 집에와서 잠이나잠\n3\n16\n274\n사지\n@Aspirin_4140\n·\n2월 8일\n트리키세 ㅋㅋㅋㅋㅋㅋㅋㅋ\n사실안웃김\n9\n16\n949']</t>
         </is>
       </c>
     </row>
@@ -1182,7 +1186,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>['팔로우\n사지\n@Aspirin_4140\n당신을 사로잡고 있는 그 한없는 갈망이 무엇인지 모르겠어요\n객석interphase2.postype.com가입일: 2023년 2월\n142 팔로우 중\n138 팔로워\n게시물\n답글\n미디어\n마음에 들어요\n사지 님의 게시물\n메인에 올림\n사지\n@Aspirin_4140\n·\n5월 27일\n#겹친소 #문학_트친소 #문탐_트친소 #문학계_트친소 #독서계_트친소\n하지은작가님책이랑 그외 문탐메이저도서(날개 종의기원 위저베 등)랑 동과거 팝니다\n최애캐는 고요 나르치스 기타등등\n수학은 특히 자연수좋아합니다\n취미로 글도쓰고 자캐놀이도해요\n장기팔이소녀와 트친해주세요\n+양자역학 안믿음\n19\n9\n1.1천\n사지\n@Aspirin_4140\n·\n3월 7일\n얼음나무숲 아세요?\nㄴ아니요\n\n단 하나의\nㄴ청중\n\n내게 자네의 그\nㄴ순수를 줘\n\n모토벤의 고결한\nㄴ복수\n\n얼음나무숲 아세요?\nㄴ아니요\n더 보기\n8\n32\n635\n사지\n@Aspirin_4140\n·\n2월 8일\n얼나숲 키세\n1\n20\n29\n1.2천\n사지\n@Aspirin_4140\n·\n2월 8일\n얼나숲읽으면서\n바옐 절친도잇고\n사랑하는여자도있고\n뭔가 이새키 친구많잖아?? 오랜시간관계를쌓아온 주변인이 상당히 많길래\n고요가 이사람들을 이길수잇을까? 어케 마지막엔 다들 오직 고요바옐고요를 외치게되는걸까 싶었는데\n다죽음\n걍 다.죽음\n몰살\n1\n11\n27\n858\n사지\n@Aspirin_4140\n·\n3월 9일\n쟌\n25\n276']</t>
+          <t>['팔로우\n사지\n@Aspirin_4140\n당신을 사로잡고 있는 그 한없는 갈망이 무엇인지 모르겠어요\n객석interphase2.postype.com가입일: 2023년 2월\n142 팔로우 중\n138 팔로워\n게시물\n답글\n미디어\n마음에 들어요\n사지 님의 게시물\n메인에 올림\n사지\n@Aspirin_4140\n·\n5월 27일\n#겹친소 #문학_트친소 #문탐_트친소 #문학계_트친소 #독서계_트친소\n하지은작가님책이랑 그외 문탐메이저도서(날개 종의기원 위저베 등)랑 동과거 팝니다\n최애캐는 고요 나르치스 기타등등\n수학은 특히 자연수좋아합니다\n취미로 글도쓰고 자캐놀이도해요\n장기팔이소녀와 트친해주세요\n+양자역학 안믿음\n19\n9\n1.1천\n사지\n@Aspirin_4140\n·\n3월 7일\n얼음나무숲 아세요?\nㄴ아니요\n\n단 하나의\nㄴ청중\n\n내게 자네의 그\nㄴ순수를 줘\n\n모토벤의 고결한\nㄴ복수\n\n얼음나무숲 아세요?\nㄴ아니요\n더 보기\n8\n32\n635\n사지\n@Aspirin_4140\n·\n2월 8일\n얼나숲 키세\n1\n20\n29\n1.2천\n사지\n@Aspirin_4140\n·\n2월 8일\n얼나숲읽으면서\n바옐 절친도잇고\n사랑하는여자도있고\n뭔가 이새키 친구많잖아?? 오랜시간관계를쌓아온 주변인이 상당히 많길래\n고요가 이사람들을 이길수잇을까? 어케 마지막엔 다들 오직 고요바옐고요를 외치게되는걸까 싶었는데\n다죽음\n걍 다.죽음\n몰살\n1\n11\n27\n858\n사지\n@Aspirin_4140\n·\n3월 9일\n쟌\n25\n276\n사지\n@Aspirin_4140\n·\n3월 20일\n트친이얼나숲읽고잇어요\n즐거워요\n5\n21\n272\n사지\n@Aspirin_4140\n·\n2023년 11월 4일\n인간의 70%가 물이니까 우리가 물을 마시는 것은 사실상 거의 식인을 하는것과 다름없는 것입니다.\n1\n17\n2.4천\n사지\n@Aspirin_4140\n·\n4월 7일\n애인 사귀는 족족 죽이고 곡뽑아내던 미친살인마음악가가\n곡을 포기하면서까지 안 죽이고 곁에 살려두고싶다고생각하게되는 그런 사람을 만나버려서 혼란스러워하는걸 보고싶다\n2\n18\n212\n사지\n@Aspirin_4140\n·\n3월 9일\n러시아소설특: 맨날 속으로는 극대노하고 온갖생각 망상다하고 일어나지도않은일가지고 내가오늘진짜다죽인다다패버릴거다 이러고 나오는데 정작 실제상황에선 아무것도못하고 쭈굴하게있다가 집에와서 잠이나잠\n3\n16\n274\n사지\n@Aspirin_4140\n·\n2월 8일\n트리키세 ㅋㅋㅋㅋㅋㅋㅋㅋ\n사실안웃김\n9\n16\n949']</t>
         </is>
       </c>
     </row>
@@ -1192,7 +1196,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>['팔로우\n사지\n@Aspirin_4140\n당신을 사로잡고 있는 그 한없는 갈망이 무엇인지 모르겠어요\n객석interphase2.postype.com가입일: 2023년 2월\n142 팔로우 중\n138 팔로워\n게시물\n답글\n미디어\n마음에 들어요\n사지 님의 게시물\n메인에 올림\n사지\n@Aspirin_4140\n·\n5월 27일\n#겹친소 #문학_트친소 #문탐_트친소 #문학계_트친소 #독서계_트친소\n하지은작가님책이랑 그외 문탐메이저도서(날개 종의기원 위저베 등)랑 동과거 팝니다\n최애캐는 고요 나르치스 기타등등\n수학은 특히 자연수좋아합니다\n취미로 글도쓰고 자캐놀이도해요\n장기팔이소녀와 트친해주세요\n+양자역학 안믿음\n19\n9\n1.1천\n사지\n@Aspirin_4140\n·\n3월 7일\n얼음나무숲 아세요?\nㄴ아니요\n\n단 하나의\nㄴ청중\n\n내게 자네의 그\nㄴ순수를 줘\n\n모토벤의 고결한\nㄴ복수\n\n얼음나무숲 아세요?\nㄴ아니요\n더 보기\n8\n32\n635\n사지\n@Aspirin_4140\n·\n2월 8일\n얼나숲 키세\n1\n20\n29\n1.2천\n사지\n@Aspirin_4140\n·\n2월 8일\n얼나숲읽으면서\n바옐 절친도잇고\n사랑하는여자도있고\n뭔가 이새키 친구많잖아?? 오랜시간관계를쌓아온 주변인이 상당히 많길래\n고요가 이사람들을 이길수잇을까? 어케 마지막엔 다들 오직 고요바옐고요를 외치게되는걸까 싶었는데\n다죽음\n걍 다.죽음\n몰살\n1\n11\n27\n858\n사지\n@Aspirin_4140\n·\n3월 9일\n쟌\n25\n276']</t>
+          <t>['팔로우\n사지\n@Aspirin_4140\n당신을 사로잡고 있는 그 한없는 갈망이 무엇인지 모르겠어요\n객석interphase2.postype.com가입일: 2023년 2월\n142 팔로우 중\n138 팔로워\n게시물\n답글\n미디어\n마음에 들어요\n사지 님의 게시물\n메인에 올림\n사지\n@Aspirin_4140\n·\n5월 27일\n#겹친소 #문학_트친소 #문탐_트친소 #문학계_트친소 #독서계_트친소\n하지은작가님책이랑 그외 문탐메이저도서(날개 종의기원 위저베 등)랑 동과거 팝니다\n최애캐는 고요 나르치스 기타등등\n수학은 특히 자연수좋아합니다\n취미로 글도쓰고 자캐놀이도해요\n장기팔이소녀와 트친해주세요\n+양자역학 안믿음\n19\n9\n1.1천\n사지\n@Aspirin_4140\n·\n3월 7일\n얼음나무숲 아세요?\nㄴ아니요\n\n단 하나의\nㄴ청중\n\n내게 자네의 그\nㄴ순수를 줘\n\n모토벤의 고결한\nㄴ복수\n\n얼음나무숲 아세요?\nㄴ아니요\n더 보기\n8\n32\n635\n사지\n@Aspirin_4140\n·\n2월 8일\n얼나숲 키세\n1\n20\n29\n1.2천\n사지\n@Aspirin_4140\n·\n2월 8일\n얼나숲읽으면서\n바옐 절친도잇고\n사랑하는여자도있고\n뭔가 이새키 친구많잖아?? 오랜시간관계를쌓아온 주변인이 상당히 많길래\n고요가 이사람들을 이길수잇을까? 어케 마지막엔 다들 오직 고요바옐고요를 외치게되는걸까 싶었는데\n다죽음\n걍 다.죽음\n몰살\n1\n11\n27\n858\n사지\n@Aspirin_4140\n·\n3월 9일\n쟌\n25\n276\n사지\n@Aspirin_4140\n·\n3월 20일\n트친이얼나숲읽고잇어요\n즐거워요\n5\n21\n272\n사지\n@Aspirin_4140\n·\n2023년 11월 4일\n인간의 70%가 물이니까 우리가 물을 마시는 것은 사실상 거의 식인을 하는것과 다름없는 것입니다.\n1\n17\n2.4천\n사지\n@Aspirin_4140\n·\n4월 7일\n애인 사귀는 족족 죽이고 곡뽑아내던 미친살인마음악가가\n곡을 포기하면서까지 안 죽이고 곁에 살려두고싶다고생각하게되는 그런 사람을 만나버려서 혼란스러워하는걸 보고싶다\n2\n18\n212\n사지\n@Aspirin_4140\n·\n3월 9일\n러시아소설특: 맨날 속으로는 극대노하고 온갖생각 망상다하고 일어나지도않은일가지고 내가오늘진짜다죽인다다패버릴거다 이러고 나오는데 정작 실제상황에선 아무것도못하고 쭈굴하게있다가 집에와서 잠이나잠\n3\n16\n274\n사지\n@Aspirin_4140\n·\n2월 8일\n트리키세 ㅋㅋㅋㅋㅋㅋㅋㅋ\n사실안웃김\n9\n16\n949']</t>
         </is>
       </c>
     </row>
@@ -1653,6 +1657,9646 @@
       <c r="B123" t="inlineStr">
         <is>
           <t>['게시물\n답글\n미디어\n마음에 들어요']</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>['게시물\n답글\n미디어\n마음에 들어요']</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>['게시물']</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>['게시물']</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>['게시물']</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>['답글']</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>['답글']</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>['답글']</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>['미디어']</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>['미디어']</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>['미디어']</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>['마음에 들어요']</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>['마음에 들어요']</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>['마음에 들어요']</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>['사지 님의 게시물\n메인에 올림\n사지\n@Aspirin_4140\n·\n5월 27일\n#겹친소 #문학_트친소 #문탐_트친소 #문학계_트친소 #독서계_트친소\n하지은작가님책이랑 그외 문탐메이저도서(날개 종의기원 위저베 등)랑 동과거 팝니다\n최애캐는 고요 나르치스 기타등등\n수학은 특히 자연수좋아합니다\n취미로 글도쓰고 자캐놀이도해요\n장기팔이소녀와 트친해주세요\n+양자역학 안믿음\n19\n9\n1.1천\n사지\n@Aspirin_4140\n·\n3월 7일\n얼음나무숲 아세요?\nㄴ아니요\n\n단 하나의\nㄴ청중\n\n내게 자네의 그\nㄴ순수를 줘\n\n모토벤의 고결한\nㄴ복수\n\n얼음나무숲 아세요?\nㄴ아니요\n더 보기\n8\n32\n635\n사지\n@Aspirin_4140\n·\n2월 8일\n얼나숲 키세\n1\n20\n29\n1.2천\n사지\n@Aspirin_4140\n·\n2월 8일\n얼나숲읽으면서\n바옐 절친도잇고\n사랑하는여자도있고\n뭔가 이새키 친구많잖아?? 오랜시간관계를쌓아온 주변인이 상당히 많길래\n고요가 이사람들을 이길수잇을까? 어케 마지막엔 다들 오직 고요바옐고요를 외치게되는걸까 싶었는데\n다죽음\n걍 다.죽음\n몰살\n1\n11\n27\n858\n사지\n@Aspirin_4140\n·\n3월 9일\n쟌\n25\n276\n사지\n@Aspirin_4140\n·\n3월 20일\n트친이얼나숲읽고잇어요\n즐거워요\n5\n21\n272\n사지\n@Aspirin_4140\n·\n2023년 11월 4일\n인간의 70%가 물이니까 우리가 물을 마시는 것은 사실상 거의 식인을 하는것과 다름없는 것입니다.\n1\n17\n2.4천\n사지\n@Aspirin_4140\n·\n4월 7일\n애인 사귀는 족족 죽이고 곡뽑아내던 미친살인마음악가가\n곡을 포기하면서까지 안 죽이고 곁에 살려두고싶다고생각하게되는 그런 사람을 만나버려서 혼란스러워하는걸 보고싶다\n2\n18\n212\n사지\n@Aspirin_4140\n·\n3월 9일\n러시아소설특: 맨날 속으로는 극대노하고 온갖생각 망상다하고 일어나지도않은일가지고 내가오늘진짜다죽인다다패버릴거다 이러고 나오는데 정작 실제상황에선 아무것도못하고 쭈굴하게있다가 집에와서 잠이나잠\n3\n16\n274\n사지\n@Aspirin_4140\n·\n2월 8일\n트리키세 ㅋㅋㅋㅋㅋㅋㅋㅋ\n사실안웃김\n9\n16\n949']</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>['메인에 올림\n사지\n@Aspirin_4140\n·\n5월 27일\n#겹친소 #문학_트친소 #문탐_트친소 #문학계_트친소 #독서계_트친소\n하지은작가님책이랑 그외 문탐메이저도서(날개 종의기원 위저베 등)랑 동과거 팝니다\n최애캐는 고요 나르치스 기타등등\n수학은 특히 자연수좋아합니다\n취미로 글도쓰고 자캐놀이도해요\n장기팔이소녀와 트친해주세요\n+양자역학 안믿음\n19\n9\n1.1천\n사지\n@Aspirin_4140\n·\n3월 7일\n얼음나무숲 아세요?\nㄴ아니요\n\n단 하나의\nㄴ청중\n\n내게 자네의 그\nㄴ순수를 줘\n\n모토벤의 고결한\nㄴ복수\n\n얼음나무숲 아세요?\nㄴ아니요\n더 보기\n8\n32\n635\n사지\n@Aspirin_4140\n·\n2월 8일\n얼나숲 키세\n1\n20\n29\n1.2천\n사지\n@Aspirin_4140\n·\n2월 8일\n얼나숲읽으면서\n바옐 절친도잇고\n사랑하는여자도있고\n뭔가 이새키 친구많잖아?? 오랜시간관계를쌓아온 주변인이 상당히 많길래\n고요가 이사람들을 이길수잇을까? 어케 마지막엔 다들 오직 고요바옐고요를 외치게되는걸까 싶었는데\n다죽음\n걍 다.죽음\n몰살\n1\n11\n27\n858\n사지\n@Aspirin_4140\n·\n3월 9일\n쟌\n25\n276\n사지\n@Aspirin_4140\n·\n3월 20일\n트친이얼나숲읽고잇어요\n즐거워요\n5\n21\n272\n사지\n@Aspirin_4140\n·\n2023년 11월 4일\n인간의 70%가 물이니까 우리가 물을 마시는 것은 사실상 거의 식인을 하는것과 다름없는 것입니다.\n1\n17\n2.4천\n사지\n@Aspirin_4140\n·\n4월 7일\n애인 사귀는 족족 죽이고 곡뽑아내던 미친살인마음악가가\n곡을 포기하면서까지 안 죽이고 곁에 살려두고싶다고생각하게되는 그런 사람을 만나버려서 혼란스러워하는걸 보고싶다\n2\n18\n212\n사지\n@Aspirin_4140\n·\n3월 9일\n러시아소설특: 맨날 속으로는 극대노하고 온갖생각 망상다하고 일어나지도않은일가지고 내가오늘진짜다죽인다다패버릴거다 이러고 나오는데 정작 실제상황에선 아무것도못하고 쭈굴하게있다가 집에와서 잠이나잠\n3\n16\n274\n사지\n@Aspirin_4140\n·\n2월 8일\n트리키세 ㅋㅋㅋㅋㅋㅋㅋㅋ\n사실안웃김\n9\n16\n949']</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>['메인에 올림\n사지\n@Aspirin_4140\n·\n5월 27일\n#겹친소 #문학_트친소 #문탐_트친소 #문학계_트친소 #독서계_트친소\n하지은작가님책이랑 그외 문탐메이저도서(날개 종의기원 위저베 등)랑 동과거 팝니다\n최애캐는 고요 나르치스 기타등등\n수학은 특히 자연수좋아합니다\n취미로 글도쓰고 자캐놀이도해요\n장기팔이소녀와 트친해주세요\n+양자역학 안믿음\n19\n9\n1.1천']</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>['메인에 올림\n사지\n@Aspirin_4140\n·\n5월 27일\n#겹친소 #문학_트친소 #문탐_트친소 #문학계_트친소 #독서계_트친소\n하지은작가님책이랑 그외 문탐메이저도서(날개 종의기원 위저베 등)랑 동과거 팝니다\n최애캐는 고요 나르치스 기타등등\n수학은 특히 자연수좋아합니다\n취미로 글도쓰고 자캐놀이도해요\n장기팔이소녀와 트친해주세요\n+양자역학 안믿음\n19\n9\n1.1천']</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>['메인에 올림\n사지\n@Aspirin_4140\n·\n5월 27일\n#겹친소 #문학_트친소 #문탐_트친소 #문학계_트친소 #독서계_트친소\n하지은작가님책이랑 그외 문탐메이저도서(날개 종의기원 위저베 등)랑 동과거 팝니다\n최애캐는 고요 나르치스 기타등등\n수학은 특히 자연수좋아합니다\n취미로 글도쓰고 자캐놀이도해요\n장기팔이소녀와 트친해주세요\n+양자역학 안믿음\n19\n9\n1.1천']</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>['메인에 올림\n사지\n@Aspirin_4140\n·\n5월 27일\n#겹친소 #문학_트친소 #문탐_트친소 #문학계_트친소 #독서계_트친소\n하지은작가님책이랑 그외 문탐메이저도서(날개 종의기원 위저베 등)랑 동과거 팝니다\n최애캐는 고요 나르치스 기타등등\n수학은 특히 자연수좋아합니다\n취미로 글도쓰고 자캐놀이도해요\n장기팔이소녀와 트친해주세요\n+양자역학 안믿음\n19\n9\n1.1천']</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>['메인에 올림\n사지\n@Aspirin_4140\n·\n5월 27일\n#겹친소 #문학_트친소 #문탐_트친소 #문학계_트친소 #독서계_트친소\n하지은작가님책이랑 그외 문탐메이저도서(날개 종의기원 위저베 등)랑 동과거 팝니다\n최애캐는 고요 나르치스 기타등등\n수학은 특히 자연수좋아합니다\n취미로 글도쓰고 자캐놀이도해요\n장기팔이소녀와 트친해주세요\n+양자역학 안믿음\n19\n9\n1.1천']</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>['메인에 올림\n사지\n@Aspirin_4140\n·\n5월 27일\n#겹친소 #문학_트친소 #문탐_트친소 #문학계_트친소 #독서계_트친소\n하지은작가님책이랑 그외 문탐메이저도서(날개 종의기원 위저베 등)랑 동과거 팝니다\n최애캐는 고요 나르치스 기타등등\n수학은 특히 자연수좋아합니다\n취미로 글도쓰고 자캐놀이도해요\n장기팔이소녀와 트친해주세요\n+양자역학 안믿음\n19\n9\n1.1천']</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>['메인에 올림']</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>['메인에 올림']</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>['메인에 올림']</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>['메인에 올림']</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>['메인에 올림']</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>['메인에 올림']</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>['메인에 올림']</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>['메인에 올림']</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>['사지\n@Aspirin_4140\n·\n5월 27일\n#겹친소 #문학_트친소 #문탐_트친소 #문학계_트친소 #독서계_트친소\n하지은작가님책이랑 그외 문탐메이저도서(날개 종의기원 위저베 등)랑 동과거 팝니다\n최애캐는 고요 나르치스 기타등등\n수학은 특히 자연수좋아합니다\n취미로 글도쓰고 자캐놀이도해요\n장기팔이소녀와 트친해주세요\n+양자역학 안믿음\n19\n9\n1.1천']</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>['사지\n@Aspirin_4140\n·\n5월 27일\n#겹친소 #문학_트친소 #문탐_트친소 #문학계_트친소 #독서계_트친소\n하지은작가님책이랑 그외 문탐메이저도서(날개 종의기원 위저베 등)랑 동과거 팝니다\n최애캐는 고요 나르치스 기타등등\n수학은 특히 자연수좋아합니다\n취미로 글도쓰고 자캐놀이도해요\n장기팔이소녀와 트친해주세요\n+양자역학 안믿음\n19\n9\n1.1천']</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>['사지\n@Aspirin_4140\n·\n5월 27일']</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>['사지\n@Aspirin_4140\n·\n5월 27일']</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>['사지\n@Aspirin_4140\n·\n5월 27일']</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>['사지\n@Aspirin_4140\n·\n5월 27일']</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>['사지\n@Aspirin_4140\n·\n5월 27일']</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>['사지']</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>['사지']</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>['사지']</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>['사지']</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>['@Aspirin_4140\n·\n5월 27일']</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>['@Aspirin_4140\n·\n5월 27일']</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>['@Aspirin_4140']</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>['@Aspirin_4140']</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>['5월 27일']</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>['#겹친소 #문학_트친소 #문탐_트친소 #문학계_트친소 #독서계_트친소\n하지은작가님책이랑 그외 문탐메이저도서(날개 종의기원 위저베 등)랑 동과거 팝니다\n최애캐는 고요 나르치스 기타등등\n수학은 특히 자연수좋아합니다\n취미로 글도쓰고 자캐놀이도해요\n장기팔이소녀와 트친해주세요\n+양자역학 안믿음']</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>['19\n9\n1.1천']</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>['19\n9\n1.1천']</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>['19\n9\n1.1천']</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>['19']</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>['19']</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>['19']</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>['9']</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>['9']</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>['9']</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>['1.1천']</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>['1.1천']</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>['1.1천']</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>['사지\n@Aspirin_4140\n·\n3월 7일\n얼음나무숲 아세요?\nㄴ아니요\n\n단 하나의\nㄴ청중\n\n내게 자네의 그\nㄴ순수를 줘\n\n모토벤의 고결한\nㄴ복수\n\n얼음나무숲 아세요?\nㄴ아니요\n더 보기\n8\n32\n635']</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>['사지\n@Aspirin_4140\n·\n3월 7일\n얼음나무숲 아세요?\nㄴ아니요\n\n단 하나의\nㄴ청중\n\n내게 자네의 그\nㄴ순수를 줘\n\n모토벤의 고결한\nㄴ복수\n\n얼음나무숲 아세요?\nㄴ아니요\n더 보기\n8\n32\n635']</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>['사지\n@Aspirin_4140\n·\n3월 7일\n얼음나무숲 아세요?\nㄴ아니요\n\n단 하나의\nㄴ청중\n\n내게 자네의 그\nㄴ순수를 줘\n\n모토벤의 고결한\nㄴ복수\n\n얼음나무숲 아세요?\nㄴ아니요\n더 보기\n8\n32\n635']</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>['사지\n@Aspirin_4140\n·\n3월 7일\n얼음나무숲 아세요?\nㄴ아니요\n\n단 하나의\nㄴ청중\n\n내게 자네의 그\nㄴ순수를 줘\n\n모토벤의 고결한\nㄴ복수\n\n얼음나무숲 아세요?\nㄴ아니요\n더 보기\n8\n32\n635']</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>['사지\n@Aspirin_4140\n·\n3월 7일\n얼음나무숲 아세요?\nㄴ아니요\n\n단 하나의\nㄴ청중\n\n내게 자네의 그\nㄴ순수를 줘\n\n모토벤의 고결한\nㄴ복수\n\n얼음나무숲 아세요?\nㄴ아니요\n더 보기\n8\n32\n635']</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>['사지\n@Aspirin_4140\n·\n3월 7일\n얼음나무숲 아세요?\nㄴ아니요\n\n단 하나의\nㄴ청중\n\n내게 자네의 그\nㄴ순수를 줘\n\n모토벤의 고결한\nㄴ복수\n\n얼음나무숲 아세요?\nㄴ아니요\n더 보기\n8\n32\n635']</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>['사지\n@Aspirin_4140\n·\n3월 7일\n얼음나무숲 아세요?\nㄴ아니요\n\n단 하나의\nㄴ청중\n\n내게 자네의 그\nㄴ순수를 줘\n\n모토벤의 고결한\nㄴ복수\n\n얼음나무숲 아세요?\nㄴ아니요\n더 보기\n8\n32\n635']</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="n">
+        <v>287</v>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="n">
+        <v>288</v>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="n">
+        <v>291</v>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="n">
+        <v>292</v>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="n">
+        <v>293</v>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="n">
+        <v>294</v>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>['사지\n@Aspirin_4140\n·\n3월 7일\n얼음나무숲 아세요?\nㄴ아니요\n\n단 하나의\nㄴ청중\n\n내게 자네의 그\nㄴ순수를 줘\n\n모토벤의 고결한\nㄴ복수\n\n얼음나무숲 아세요?\nㄴ아니요\n더 보기\n8\n32\n635']</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="n">
+        <v>295</v>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>['사지\n@Aspirin_4140\n·\n3월 7일']</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="n">
+        <v>296</v>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>['사지\n@Aspirin_4140\n·\n3월 7일']</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="n">
+        <v>297</v>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>['사지\n@Aspirin_4140\n·\n3월 7일']</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="n">
+        <v>298</v>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>['사지\n@Aspirin_4140\n·\n3월 7일']</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="n">
+        <v>299</v>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>['사지\n@Aspirin_4140\n·\n3월 7일']</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>['사지']</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>['사지']</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="n">
+        <v>302</v>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>['사지']</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="n">
+        <v>303</v>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>['사지']</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="n">
+        <v>304</v>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>['@Aspirin_4140\n·\n3월 7일']</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="n">
+        <v>305</v>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>['@Aspirin_4140\n·\n3월 7일']</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="n">
+        <v>306</v>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>['@Aspirin_4140']</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="n">
+        <v>307</v>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>['@Aspirin_4140']</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="n">
+        <v>308</v>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>['3월 7일']</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="n">
+        <v>309</v>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="n">
+        <v>310</v>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="n">
+        <v>311</v>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="n">
+        <v>312</v>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="n">
+        <v>313</v>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="n">
+        <v>314</v>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="n">
+        <v>315</v>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="n">
+        <v>316</v>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="n">
+        <v>317</v>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>['얼음나무숲 아세요?\nㄴ아니요\n\n단 하나의\nㄴ청중\n\n내게 자네의 그\nㄴ순수를 줘\n\n모토벤의 고결한\nㄴ복수\n\n얼음나무숲 아세요?\nㄴ아니요\n더 보기']</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="n">
+        <v>318</v>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>['8\n32\n635']</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="n">
+        <v>319</v>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>['8\n32\n635']</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="n">
+        <v>320</v>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>['8\n32\n635']</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="n">
+        <v>321</v>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="n">
+        <v>322</v>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="n">
+        <v>323</v>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="n">
+        <v>324</v>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="n">
+        <v>325</v>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="n">
+        <v>326</v>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>['8']</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>['8']</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="n">
+        <v>328</v>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="n">
+        <v>329</v>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="n">
+        <v>330</v>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>['8']</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="n">
+        <v>331</v>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>['32']</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="n">
+        <v>332</v>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>['32']</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="n">
+        <v>333</v>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="n">
+        <v>334</v>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="n">
+        <v>335</v>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>['32']</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="1" t="n">
+        <v>336</v>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>['635']</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="n">
+        <v>337</v>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>['635']</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="1" t="n">
+        <v>338</v>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="n">
+        <v>339</v>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="1" t="n">
+        <v>340</v>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>['635']</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="n">
+        <v>341</v>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="1" t="n">
+        <v>342</v>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="n">
+        <v>343</v>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="1" t="n">
+        <v>344</v>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="1" t="n">
+        <v>345</v>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="1" t="n">
+        <v>346</v>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="1" t="n">
+        <v>347</v>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="1" t="n">
+        <v>348</v>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="1" t="n">
+        <v>349</v>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="1" t="n">
+        <v>350</v>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>['사지\n@Aspirin_4140\n·\n2월 8일\n얼나숲 키세\n1\n20\n29\n1.2천']</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="1" t="n">
+        <v>351</v>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>['사지\n@Aspirin_4140\n·\n2월 8일\n얼나숲 키세\n1\n20\n29\n1.2천']</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="1" t="n">
+        <v>352</v>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>['사지\n@Aspirin_4140\n·\n2월 8일\n얼나숲 키세\n1\n20\n29\n1.2천']</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="1" t="n">
+        <v>353</v>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>['사지\n@Aspirin_4140\n·\n2월 8일\n얼나숲 키세\n1\n20\n29\n1.2천']</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="1" t="n">
+        <v>354</v>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>['사지\n@Aspirin_4140\n·\n2월 8일\n얼나숲 키세\n1\n20\n29\n1.2천']</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="n">
+        <v>355</v>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>['사지\n@Aspirin_4140\n·\n2월 8일\n얼나숲 키세\n1\n20\n29\n1.2천']</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="n">
+        <v>356</v>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="n">
+        <v>357</v>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="1" t="n">
+        <v>358</v>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="1" t="n">
+        <v>359</v>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>['사지\n@Aspirin_4140\n·\n2월 8일\n얼나숲 키세\n1\n20\n29\n1.2천']</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="1" t="n">
+        <v>360</v>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="1" t="n">
+        <v>361</v>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="1" t="n">
+        <v>362</v>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="1" t="n">
+        <v>363</v>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="1" t="n">
+        <v>364</v>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="1" t="n">
+        <v>365</v>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="1" t="n">
+        <v>366</v>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="1" t="n">
+        <v>367</v>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="1" t="n">
+        <v>368</v>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="1" t="n">
+        <v>369</v>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="1" t="n">
+        <v>370</v>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="1" t="n">
+        <v>371</v>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="1" t="n">
+        <v>372</v>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="1" t="n">
+        <v>373</v>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="1" t="n">
+        <v>374</v>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="1" t="n">
+        <v>375</v>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="1" t="n">
+        <v>376</v>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="1" t="n">
+        <v>377</v>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="1" t="n">
+        <v>378</v>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>['사지\n@Aspirin_4140\n·\n2월 8일\n얼나숲 키세\n1\n20\n29\n1.2천']</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="1" t="n">
+        <v>379</v>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>['사지\n@Aspirin_4140\n·\n2월 8일']</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="1" t="n">
+        <v>380</v>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>['사지\n@Aspirin_4140\n·\n2월 8일']</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="1" t="n">
+        <v>381</v>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>['사지\n@Aspirin_4140\n·\n2월 8일']</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="1" t="n">
+        <v>382</v>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>['사지\n@Aspirin_4140\n·\n2월 8일']</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="1" t="n">
+        <v>383</v>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>['사지\n@Aspirin_4140\n·\n2월 8일']</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="1" t="n">
+        <v>384</v>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>['사지']</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="1" t="n">
+        <v>385</v>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>['사지']</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="1" t="n">
+        <v>386</v>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>['사지']</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="1" t="n">
+        <v>387</v>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>['사지']</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="1" t="n">
+        <v>388</v>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>['@Aspirin_4140\n·\n2월 8일']</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="1" t="n">
+        <v>389</v>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>['@Aspirin_4140\n·\n2월 8일']</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="1" t="n">
+        <v>390</v>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>['@Aspirin_4140']</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="1" t="n">
+        <v>391</v>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>['@Aspirin_4140']</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="1" t="n">
+        <v>392</v>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>['2월 8일']</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="1" t="n">
+        <v>393</v>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="1" t="n">
+        <v>394</v>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="1" t="n">
+        <v>395</v>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="1" t="n">
+        <v>396</v>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="1" t="n">
+        <v>397</v>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="1" t="n">
+        <v>398</v>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="1" t="n">
+        <v>399</v>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="1" t="n">
+        <v>400</v>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="1" t="n">
+        <v>401</v>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>['얼나숲 키세']</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="1" t="n">
+        <v>402</v>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="1" t="n">
+        <v>403</v>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="1" t="n">
+        <v>404</v>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="1" t="n">
+        <v>405</v>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="1" t="n">
+        <v>406</v>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="1" t="n">
+        <v>407</v>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="1" t="n">
+        <v>408</v>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="1" t="n">
+        <v>409</v>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="1" t="n">
+        <v>410</v>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="1" t="n">
+        <v>411</v>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="1" t="n">
+        <v>412</v>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="1" t="n">
+        <v>413</v>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>['1\n20\n29\n1.2천']</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="1" t="n">
+        <v>414</v>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>['1\n20\n29\n1.2천']</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="1" t="n">
+        <v>415</v>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>['1\n20\n29\n1.2천']</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="1" t="n">
+        <v>416</v>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>['1']</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="1" t="n">
+        <v>417</v>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>['1']</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="1" t="n">
+        <v>418</v>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="1" t="n">
+        <v>419</v>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="1" t="n">
+        <v>420</v>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>['1']</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="1" t="n">
+        <v>421</v>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>['20']</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="1" t="n">
+        <v>422</v>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>['20']</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="1" t="n">
+        <v>423</v>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="1" t="n">
+        <v>424</v>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="1" t="n">
+        <v>425</v>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>['20']</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="1" t="n">
+        <v>426</v>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>['29']</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="1" t="n">
+        <v>427</v>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>['29']</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="1" t="n">
+        <v>428</v>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="1" t="n">
+        <v>429</v>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="1" t="n">
+        <v>430</v>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>['29']</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" s="1" t="n">
+        <v>431</v>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>['1.2천']</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="1" t="n">
+        <v>432</v>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>['1.2천']</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="1" t="n">
+        <v>433</v>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" s="1" t="n">
+        <v>434</v>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" s="1" t="n">
+        <v>435</v>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>['1.2천']</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" s="1" t="n">
+        <v>436</v>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" s="1" t="n">
+        <v>437</v>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" s="1" t="n">
+        <v>438</v>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" s="1" t="n">
+        <v>439</v>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" s="1" t="n">
+        <v>440</v>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="1" t="n">
+        <v>441</v>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" s="1" t="n">
+        <v>442</v>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" s="1" t="n">
+        <v>443</v>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" s="1" t="n">
+        <v>444</v>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" s="1" t="n">
+        <v>445</v>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>['사지\n@Aspirin_4140\n·\n2월 8일\n얼나숲읽으면서\n바옐 절친도잇고\n사랑하는여자도있고\n뭔가 이새키 친구많잖아?? 오랜시간관계를쌓아온 주변인이 상당히 많길래\n고요가 이사람들을 이길수잇을까? 어케 마지막엔 다들 오직 고요바옐고요를 외치게되는걸까 싶었는데\n다죽음\n걍 다.죽음\n몰살\n1\n11\n27\n858']</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" s="1" t="n">
+        <v>446</v>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>['사지\n@Aspirin_4140\n·\n2월 8일\n얼나숲읽으면서\n바옐 절친도잇고\n사랑하는여자도있고\n뭔가 이새키 친구많잖아?? 오랜시간관계를쌓아온 주변인이 상당히 많길래\n고요가 이사람들을 이길수잇을까? 어케 마지막엔 다들 오직 고요바옐고요를 외치게되는걸까 싶었는데\n다죽음\n걍 다.죽음\n몰살\n1\n11\n27\n858']</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" s="1" t="n">
+        <v>447</v>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>['사지\n@Aspirin_4140\n·\n2월 8일\n얼나숲읽으면서\n바옐 절친도잇고\n사랑하는여자도있고\n뭔가 이새키 친구많잖아?? 오랜시간관계를쌓아온 주변인이 상당히 많길래\n고요가 이사람들을 이길수잇을까? 어케 마지막엔 다들 오직 고요바옐고요를 외치게되는걸까 싶었는데\n다죽음\n걍 다.죽음\n몰살\n1\n11\n27\n858']</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" s="1" t="n">
+        <v>448</v>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>['사지\n@Aspirin_4140\n·\n2월 8일\n얼나숲읽으면서\n바옐 절친도잇고\n사랑하는여자도있고\n뭔가 이새키 친구많잖아?? 오랜시간관계를쌓아온 주변인이 상당히 많길래\n고요가 이사람들을 이길수잇을까? 어케 마지막엔 다들 오직 고요바옐고요를 외치게되는걸까 싶었는데\n다죽음\n걍 다.죽음\n몰살\n1\n11\n27\n858']</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" s="1" t="n">
+        <v>449</v>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>['사지\n@Aspirin_4140\n·\n2월 8일\n얼나숲읽으면서\n바옐 절친도잇고\n사랑하는여자도있고\n뭔가 이새키 친구많잖아?? 오랜시간관계를쌓아온 주변인이 상당히 많길래\n고요가 이사람들을 이길수잇을까? 어케 마지막엔 다들 오직 고요바옐고요를 외치게되는걸까 싶었는데\n다죽음\n걍 다.죽음\n몰살\n1\n11\n27\n858']</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" s="1" t="n">
+        <v>450</v>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>['사지\n@Aspirin_4140\n·\n2월 8일\n얼나숲읽으면서\n바옐 절친도잇고\n사랑하는여자도있고\n뭔가 이새키 친구많잖아?? 오랜시간관계를쌓아온 주변인이 상당히 많길래\n고요가 이사람들을 이길수잇을까? 어케 마지막엔 다들 오직 고요바옐고요를 외치게되는걸까 싶었는데\n다죽음\n걍 다.죽음\n몰살\n1\n11\n27\n858']</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" s="1" t="n">
+        <v>451</v>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="1" t="n">
+        <v>452</v>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" s="1" t="n">
+        <v>453</v>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" s="1" t="n">
+        <v>454</v>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>['사지\n@Aspirin_4140\n·\n2월 8일\n얼나숲읽으면서\n바옐 절친도잇고\n사랑하는여자도있고\n뭔가 이새키 친구많잖아?? 오랜시간관계를쌓아온 주변인이 상당히 많길래\n고요가 이사람들을 이길수잇을까? 어케 마지막엔 다들 오직 고요바옐고요를 외치게되는걸까 싶었는데\n다죽음\n걍 다.죽음\n몰살\n1\n11\n27\n858']</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" s="1" t="n">
+        <v>455</v>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" s="1" t="n">
+        <v>456</v>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" s="1" t="n">
+        <v>457</v>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" s="1" t="n">
+        <v>458</v>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="1" t="n">
+        <v>459</v>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="1" t="n">
+        <v>460</v>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" s="1" t="n">
+        <v>461</v>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="1" t="n">
+        <v>462</v>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" s="1" t="n">
+        <v>463</v>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="1" t="n">
+        <v>464</v>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="1" t="n">
+        <v>465</v>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="1" t="n">
+        <v>466</v>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="1" t="n">
+        <v>467</v>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="1" t="n">
+        <v>468</v>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="1" t="n">
+        <v>469</v>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="1" t="n">
+        <v>470</v>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="1" t="n">
+        <v>471</v>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="1" t="n">
+        <v>472</v>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="1" t="n">
+        <v>473</v>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>['사지\n@Aspirin_4140\n·\n2월 8일\n얼나숲읽으면서\n바옐 절친도잇고\n사랑하는여자도있고\n뭔가 이새키 친구많잖아?? 오랜시간관계를쌓아온 주변인이 상당히 많길래\n고요가 이사람들을 이길수잇을까? 어케 마지막엔 다들 오직 고요바옐고요를 외치게되는걸까 싶었는데\n다죽음\n걍 다.죽음\n몰살\n1\n11\n27\n858']</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="1" t="n">
+        <v>474</v>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>['사지\n@Aspirin_4140\n·\n2월 8일']</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" s="1" t="n">
+        <v>475</v>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>['사지\n@Aspirin_4140\n·\n2월 8일']</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" s="1" t="n">
+        <v>476</v>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>['사지\n@Aspirin_4140\n·\n2월 8일']</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="1" t="n">
+        <v>477</v>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>['사지\n@Aspirin_4140\n·\n2월 8일']</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="1" t="n">
+        <v>478</v>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>['사지\n@Aspirin_4140\n·\n2월 8일']</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" s="1" t="n">
+        <v>479</v>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>['사지']</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>['사지']</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="1" t="n">
+        <v>481</v>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>['사지']</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="1" t="n">
+        <v>482</v>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>['사지']</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="1" t="n">
+        <v>483</v>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>['@Aspirin_4140\n·\n2월 8일']</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="1" t="n">
+        <v>484</v>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>['@Aspirin_4140\n·\n2월 8일']</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="1" t="n">
+        <v>485</v>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>['@Aspirin_4140']</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="1" t="n">
+        <v>486</v>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>['@Aspirin_4140']</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" s="1" t="n">
+        <v>487</v>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>['2월 8일']</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="1" t="n">
+        <v>488</v>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="1" t="n">
+        <v>489</v>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" s="1" t="n">
+        <v>490</v>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="1" t="n">
+        <v>491</v>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" s="1" t="n">
+        <v>492</v>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" s="1" t="n">
+        <v>493</v>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" s="1" t="n">
+        <v>494</v>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" s="1" t="n">
+        <v>495</v>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" s="1" t="n">
+        <v>496</v>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>['얼나숲읽으면서\n바옐 절친도잇고\n사랑하는여자도있고\n뭔가 이새키 친구많잖아?? 오랜시간관계를쌓아온 주변인이 상당히 많길래\n고요가 이사람들을 이길수잇을까? 어케 마지막엔 다들 오직 고요바옐고요를 외치게되는걸까 싶었는데\n다죽음\n걍 다.죽음\n몰살']</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" s="1" t="n">
+        <v>497</v>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>['1\n11\n27\n858']</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" s="1" t="n">
+        <v>498</v>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>['1\n11\n27\n858']</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="1" t="n">
+        <v>499</v>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>['1\n11\n27\n858']</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" s="1" t="n">
+        <v>500</v>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>['1']</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" s="1" t="n">
+        <v>501</v>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>['1']</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" s="1" t="n">
+        <v>502</v>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" s="1" t="n">
+        <v>503</v>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" s="1" t="n">
+        <v>504</v>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>['1']</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" s="1" t="n">
+        <v>505</v>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>['11']</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" s="1" t="n">
+        <v>506</v>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>['11']</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" s="1" t="n">
+        <v>507</v>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" s="1" t="n">
+        <v>508</v>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" s="1" t="n">
+        <v>509</v>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>['11']</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" s="1" t="n">
+        <v>510</v>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>['27']</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" s="1" t="n">
+        <v>511</v>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>['27']</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" s="1" t="n">
+        <v>512</v>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" s="1" t="n">
+        <v>513</v>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" s="1" t="n">
+        <v>514</v>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>['27']</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" s="1" t="n">
+        <v>515</v>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>['858']</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" s="1" t="n">
+        <v>516</v>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>['858']</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" s="1" t="n">
+        <v>517</v>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" s="1" t="n">
+        <v>518</v>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" s="1" t="n">
+        <v>519</v>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>['858']</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" s="1" t="n">
+        <v>520</v>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" s="1" t="n">
+        <v>521</v>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" s="1" t="n">
+        <v>522</v>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" s="1" t="n">
+        <v>523</v>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" s="1" t="n">
+        <v>524</v>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" s="1" t="n">
+        <v>525</v>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" s="1" t="n">
+        <v>526</v>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" s="1" t="n">
+        <v>527</v>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" s="1" t="n">
+        <v>528</v>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" s="1" t="n">
+        <v>529</v>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>['사지\n@Aspirin_4140\n·\n3월 9일\n쟌\n25\n276']</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" s="1" t="n">
+        <v>530</v>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>['사지\n@Aspirin_4140\n·\n3월 9일\n쟌\n25\n276']</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" s="1" t="n">
+        <v>531</v>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>['사지\n@Aspirin_4140\n·\n3월 9일\n쟌\n25\n276']</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" s="1" t="n">
+        <v>532</v>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>['사지\n@Aspirin_4140\n·\n3월 9일\n쟌\n25\n276']</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" s="1" t="n">
+        <v>533</v>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>['사지\n@Aspirin_4140\n·\n3월 9일\n쟌\n25\n276']</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" s="1" t="n">
+        <v>534</v>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>['사지\n@Aspirin_4140\n·\n3월 9일\n쟌\n25\n276']</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" s="1" t="n">
+        <v>535</v>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" s="1" t="n">
+        <v>536</v>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" s="1" t="n">
+        <v>537</v>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" s="1" t="n">
+        <v>538</v>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>['사지\n@Aspirin_4140\n·\n3월 9일\n쟌\n25\n276']</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" s="1" t="n">
+        <v>539</v>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" s="1" t="n">
+        <v>540</v>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" s="1" t="n">
+        <v>541</v>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" s="1" t="n">
+        <v>542</v>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" s="1" t="n">
+        <v>543</v>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" s="1" t="n">
+        <v>544</v>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" s="1" t="n">
+        <v>545</v>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" s="1" t="n">
+        <v>546</v>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" s="1" t="n">
+        <v>547</v>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" s="1" t="n">
+        <v>548</v>
+      </c>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" s="1" t="n">
+        <v>549</v>
+      </c>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" s="1" t="n">
+        <v>550</v>
+      </c>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" s="1" t="n">
+        <v>551</v>
+      </c>
+      <c r="B553" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" s="1" t="n">
+        <v>552</v>
+      </c>
+      <c r="B554" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" s="1" t="n">
+        <v>553</v>
+      </c>
+      <c r="B555" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" s="1" t="n">
+        <v>554</v>
+      </c>
+      <c r="B556" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" s="1" t="n">
+        <v>555</v>
+      </c>
+      <c r="B557" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" s="1" t="n">
+        <v>556</v>
+      </c>
+      <c r="B558" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" s="1" t="n">
+        <v>557</v>
+      </c>
+      <c r="B559" t="inlineStr">
+        <is>
+          <t>['사지\n@Aspirin_4140\n·\n3월 9일\n쟌\n25\n276']</t>
+        </is>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" s="1" t="n">
+        <v>558</v>
+      </c>
+      <c r="B560" t="inlineStr">
+        <is>
+          <t>['사지\n@Aspirin_4140\n·\n3월 9일']</t>
+        </is>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" s="1" t="n">
+        <v>559</v>
+      </c>
+      <c r="B561" t="inlineStr">
+        <is>
+          <t>['사지\n@Aspirin_4140\n·\n3월 9일']</t>
+        </is>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" s="1" t="n">
+        <v>560</v>
+      </c>
+      <c r="B562" t="inlineStr">
+        <is>
+          <t>['사지\n@Aspirin_4140\n·\n3월 9일']</t>
+        </is>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" s="1" t="n">
+        <v>561</v>
+      </c>
+      <c r="B563" t="inlineStr">
+        <is>
+          <t>['사지\n@Aspirin_4140\n·\n3월 9일']</t>
+        </is>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" s="1" t="n">
+        <v>562</v>
+      </c>
+      <c r="B564" t="inlineStr">
+        <is>
+          <t>['사지\n@Aspirin_4140\n·\n3월 9일']</t>
+        </is>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" s="1" t="n">
+        <v>563</v>
+      </c>
+      <c r="B565" t="inlineStr">
+        <is>
+          <t>['사지']</t>
+        </is>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" s="1" t="n">
+        <v>564</v>
+      </c>
+      <c r="B566" t="inlineStr">
+        <is>
+          <t>['사지']</t>
+        </is>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" s="1" t="n">
+        <v>565</v>
+      </c>
+      <c r="B567" t="inlineStr">
+        <is>
+          <t>['사지']</t>
+        </is>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" s="1" t="n">
+        <v>566</v>
+      </c>
+      <c r="B568" t="inlineStr">
+        <is>
+          <t>['사지']</t>
+        </is>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" s="1" t="n">
+        <v>567</v>
+      </c>
+      <c r="B569" t="inlineStr">
+        <is>
+          <t>['@Aspirin_4140\n·\n3월 9일']</t>
+        </is>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" s="1" t="n">
+        <v>568</v>
+      </c>
+      <c r="B570" t="inlineStr">
+        <is>
+          <t>['@Aspirin_4140\n·\n3월 9일']</t>
+        </is>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" s="1" t="n">
+        <v>569</v>
+      </c>
+      <c r="B571" t="inlineStr">
+        <is>
+          <t>['@Aspirin_4140']</t>
+        </is>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" s="1" t="n">
+        <v>570</v>
+      </c>
+      <c r="B572" t="inlineStr">
+        <is>
+          <t>['@Aspirin_4140']</t>
+        </is>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" s="1" t="n">
+        <v>571</v>
+      </c>
+      <c r="B573" t="inlineStr">
+        <is>
+          <t>['3월 9일']</t>
+        </is>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" s="1" t="n">
+        <v>572</v>
+      </c>
+      <c r="B574" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" s="1" t="n">
+        <v>573</v>
+      </c>
+      <c r="B575" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" s="1" t="n">
+        <v>574</v>
+      </c>
+      <c r="B576" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" s="1" t="n">
+        <v>575</v>
+      </c>
+      <c r="B577" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" s="1" t="n">
+        <v>576</v>
+      </c>
+      <c r="B578" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" s="1" t="n">
+        <v>577</v>
+      </c>
+      <c r="B579" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" s="1" t="n">
+        <v>578</v>
+      </c>
+      <c r="B580" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" s="1" t="n">
+        <v>579</v>
+      </c>
+      <c r="B581" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" s="1" t="n">
+        <v>580</v>
+      </c>
+      <c r="B582" t="inlineStr">
+        <is>
+          <t>['쟌']</t>
+        </is>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" s="1" t="n">
+        <v>581</v>
+      </c>
+      <c r="B583" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" s="1" t="n">
+        <v>582</v>
+      </c>
+      <c r="B584" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" s="1" t="n">
+        <v>583</v>
+      </c>
+      <c r="B585" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" s="1" t="n">
+        <v>584</v>
+      </c>
+      <c r="B586" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" s="1" t="n">
+        <v>585</v>
+      </c>
+      <c r="B587" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" s="1" t="n">
+        <v>586</v>
+      </c>
+      <c r="B588" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" s="1" t="n">
+        <v>587</v>
+      </c>
+      <c r="B589" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" s="1" t="n">
+        <v>588</v>
+      </c>
+      <c r="B590" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" s="1" t="n">
+        <v>589</v>
+      </c>
+      <c r="B591" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" s="1" t="n">
+        <v>590</v>
+      </c>
+      <c r="B592" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" s="1" t="n">
+        <v>591</v>
+      </c>
+      <c r="B593" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" s="1" t="n">
+        <v>592</v>
+      </c>
+      <c r="B594" t="inlineStr">
+        <is>
+          <t>['25\n276']</t>
+        </is>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" s="1" t="n">
+        <v>593</v>
+      </c>
+      <c r="B595" t="inlineStr">
+        <is>
+          <t>['25\n276']</t>
+        </is>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" s="1" t="n">
+        <v>594</v>
+      </c>
+      <c r="B596" t="inlineStr">
+        <is>
+          <t>['25\n276']</t>
+        </is>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" s="1" t="n">
+        <v>595</v>
+      </c>
+      <c r="B597" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" s="1" t="n">
+        <v>596</v>
+      </c>
+      <c r="B598" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" s="1" t="n">
+        <v>597</v>
+      </c>
+      <c r="B599" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" s="1" t="n">
+        <v>598</v>
+      </c>
+      <c r="B600" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" s="1" t="n">
+        <v>599</v>
+      </c>
+      <c r="B601" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" s="1" t="n">
+        <v>600</v>
+      </c>
+      <c r="B602" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" s="1" t="n">
+        <v>601</v>
+      </c>
+      <c r="B603" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" s="1" t="n">
+        <v>602</v>
+      </c>
+      <c r="B604" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" s="1" t="n">
+        <v>603</v>
+      </c>
+      <c r="B605" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" s="1" t="n">
+        <v>604</v>
+      </c>
+      <c r="B606" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" s="1" t="n">
+        <v>605</v>
+      </c>
+      <c r="B607" t="inlineStr">
+        <is>
+          <t>['25']</t>
+        </is>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" s="1" t="n">
+        <v>606</v>
+      </c>
+      <c r="B608" t="inlineStr">
+        <is>
+          <t>['25']</t>
+        </is>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" s="1" t="n">
+        <v>607</v>
+      </c>
+      <c r="B609" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" s="1" t="n">
+        <v>608</v>
+      </c>
+      <c r="B610" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" s="1" t="n">
+        <v>609</v>
+      </c>
+      <c r="B611" t="inlineStr">
+        <is>
+          <t>['25']</t>
+        </is>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" s="1" t="n">
+        <v>610</v>
+      </c>
+      <c r="B612" t="inlineStr">
+        <is>
+          <t>['276']</t>
+        </is>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" s="1" t="n">
+        <v>611</v>
+      </c>
+      <c r="B613" t="inlineStr">
+        <is>
+          <t>['276']</t>
+        </is>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" s="1" t="n">
+        <v>612</v>
+      </c>
+      <c r="B614" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" s="1" t="n">
+        <v>613</v>
+      </c>
+      <c r="B615" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" s="1" t="n">
+        <v>614</v>
+      </c>
+      <c r="B616" t="inlineStr">
+        <is>
+          <t>['276']</t>
+        </is>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" s="1" t="n">
+        <v>615</v>
+      </c>
+      <c r="B617" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" s="1" t="n">
+        <v>616</v>
+      </c>
+      <c r="B618" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" s="1" t="n">
+        <v>617</v>
+      </c>
+      <c r="B619" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" s="1" t="n">
+        <v>618</v>
+      </c>
+      <c r="B620" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" s="1" t="n">
+        <v>619</v>
+      </c>
+      <c r="B621" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" s="1" t="n">
+        <v>620</v>
+      </c>
+      <c r="B622" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" s="1" t="n">
+        <v>621</v>
+      </c>
+      <c r="B623" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" s="1" t="n">
+        <v>622</v>
+      </c>
+      <c r="B624" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" s="1" t="n">
+        <v>623</v>
+      </c>
+      <c r="B625" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" s="1" t="n">
+        <v>624</v>
+      </c>
+      <c r="B626" t="inlineStr">
+        <is>
+          <t>['사지\n@Aspirin_4140\n·\n3월 20일\n트친이얼나숲읽고잇어요\n즐거워요\n5\n21\n272']</t>
+        </is>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" s="1" t="n">
+        <v>625</v>
+      </c>
+      <c r="B627" t="inlineStr">
+        <is>
+          <t>['사지\n@Aspirin_4140\n·\n3월 20일\n트친이얼나숲읽고잇어요\n즐거워요\n5\n21\n272']</t>
+        </is>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" s="1" t="n">
+        <v>626</v>
+      </c>
+      <c r="B628" t="inlineStr">
+        <is>
+          <t>['사지\n@Aspirin_4140\n·\n3월 20일\n트친이얼나숲읽고잇어요\n즐거워요\n5\n21\n272']</t>
+        </is>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" s="1" t="n">
+        <v>627</v>
+      </c>
+      <c r="B629" t="inlineStr">
+        <is>
+          <t>['사지\n@Aspirin_4140\n·\n3월 20일\n트친이얼나숲읽고잇어요\n즐거워요\n5\n21\n272']</t>
+        </is>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" s="1" t="n">
+        <v>628</v>
+      </c>
+      <c r="B630" t="inlineStr">
+        <is>
+          <t>['사지\n@Aspirin_4140\n·\n3월 20일\n트친이얼나숲읽고잇어요\n즐거워요\n5\n21\n272']</t>
+        </is>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" s="1" t="n">
+        <v>629</v>
+      </c>
+      <c r="B631" t="inlineStr">
+        <is>
+          <t>['사지\n@Aspirin_4140\n·\n3월 20일\n트친이얼나숲읽고잇어요\n즐거워요\n5\n21\n272']</t>
+        </is>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" s="1" t="n">
+        <v>630</v>
+      </c>
+      <c r="B632" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" s="1" t="n">
+        <v>631</v>
+      </c>
+      <c r="B633" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" s="1" t="n">
+        <v>632</v>
+      </c>
+      <c r="B634" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" s="1" t="n">
+        <v>633</v>
+      </c>
+      <c r="B635" t="inlineStr">
+        <is>
+          <t>['사지\n@Aspirin_4140\n·\n3월 20일\n트친이얼나숲읽고잇어요\n즐거워요\n5\n21\n272']</t>
+        </is>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" s="1" t="n">
+        <v>634</v>
+      </c>
+      <c r="B636" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" s="1" t="n">
+        <v>635</v>
+      </c>
+      <c r="B637" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" s="1" t="n">
+        <v>636</v>
+      </c>
+      <c r="B638" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" s="1" t="n">
+        <v>637</v>
+      </c>
+      <c r="B639" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" s="1" t="n">
+        <v>638</v>
+      </c>
+      <c r="B640" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" s="1" t="n">
+        <v>639</v>
+      </c>
+      <c r="B641" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" s="1" t="n">
+        <v>640</v>
+      </c>
+      <c r="B642" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" s="1" t="n">
+        <v>641</v>
+      </c>
+      <c r="B643" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" s="1" t="n">
+        <v>642</v>
+      </c>
+      <c r="B644" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" s="1" t="n">
+        <v>643</v>
+      </c>
+      <c r="B645" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" s="1" t="n">
+        <v>644</v>
+      </c>
+      <c r="B646" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" s="1" t="n">
+        <v>645</v>
+      </c>
+      <c r="B647" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" s="1" t="n">
+        <v>646</v>
+      </c>
+      <c r="B648" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" s="1" t="n">
+        <v>647</v>
+      </c>
+      <c r="B649" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" s="1" t="n">
+        <v>648</v>
+      </c>
+      <c r="B650" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" s="1" t="n">
+        <v>649</v>
+      </c>
+      <c r="B651" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" s="1" t="n">
+        <v>650</v>
+      </c>
+      <c r="B652" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" s="1" t="n">
+        <v>651</v>
+      </c>
+      <c r="B653" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" s="1" t="n">
+        <v>652</v>
+      </c>
+      <c r="B654" t="inlineStr">
+        <is>
+          <t>['사지\n@Aspirin_4140\n·\n3월 20일\n트친이얼나숲읽고잇어요\n즐거워요\n5\n21\n272']</t>
+        </is>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" s="1" t="n">
+        <v>653</v>
+      </c>
+      <c r="B655" t="inlineStr">
+        <is>
+          <t>['사지\n@Aspirin_4140\n·\n3월 20일']</t>
+        </is>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" s="1" t="n">
+        <v>654</v>
+      </c>
+      <c r="B656" t="inlineStr">
+        <is>
+          <t>['사지\n@Aspirin_4140\n·\n3월 20일']</t>
+        </is>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" s="1" t="n">
+        <v>655</v>
+      </c>
+      <c r="B657" t="inlineStr">
+        <is>
+          <t>['사지\n@Aspirin_4140\n·\n3월 20일']</t>
+        </is>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" s="1" t="n">
+        <v>656</v>
+      </c>
+      <c r="B658" t="inlineStr">
+        <is>
+          <t>['사지\n@Aspirin_4140\n·\n3월 20일']</t>
+        </is>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" s="1" t="n">
+        <v>657</v>
+      </c>
+      <c r="B659" t="inlineStr">
+        <is>
+          <t>['사지\n@Aspirin_4140\n·\n3월 20일']</t>
+        </is>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" s="1" t="n">
+        <v>658</v>
+      </c>
+      <c r="B660" t="inlineStr">
+        <is>
+          <t>['사지']</t>
+        </is>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" s="1" t="n">
+        <v>659</v>
+      </c>
+      <c r="B661" t="inlineStr">
+        <is>
+          <t>['사지']</t>
+        </is>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" s="1" t="n">
+        <v>660</v>
+      </c>
+      <c r="B662" t="inlineStr">
+        <is>
+          <t>['사지']</t>
+        </is>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" s="1" t="n">
+        <v>661</v>
+      </c>
+      <c r="B663" t="inlineStr">
+        <is>
+          <t>['사지']</t>
+        </is>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" s="1" t="n">
+        <v>662</v>
+      </c>
+      <c r="B664" t="inlineStr">
+        <is>
+          <t>['@Aspirin_4140\n·\n3월 20일']</t>
+        </is>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" s="1" t="n">
+        <v>663</v>
+      </c>
+      <c r="B665" t="inlineStr">
+        <is>
+          <t>['@Aspirin_4140\n·\n3월 20일']</t>
+        </is>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" s="1" t="n">
+        <v>664</v>
+      </c>
+      <c r="B666" t="inlineStr">
+        <is>
+          <t>['@Aspirin_4140']</t>
+        </is>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" s="1" t="n">
+        <v>665</v>
+      </c>
+      <c r="B667" t="inlineStr">
+        <is>
+          <t>['@Aspirin_4140']</t>
+        </is>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" s="1" t="n">
+        <v>666</v>
+      </c>
+      <c r="B668" t="inlineStr">
+        <is>
+          <t>['3월 20일']</t>
+        </is>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" s="1" t="n">
+        <v>667</v>
+      </c>
+      <c r="B669" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" s="1" t="n">
+        <v>668</v>
+      </c>
+      <c r="B670" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" s="1" t="n">
+        <v>669</v>
+      </c>
+      <c r="B671" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" s="1" t="n">
+        <v>670</v>
+      </c>
+      <c r="B672" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" s="1" t="n">
+        <v>671</v>
+      </c>
+      <c r="B673" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" s="1" t="n">
+        <v>672</v>
+      </c>
+      <c r="B674" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" s="1" t="n">
+        <v>673</v>
+      </c>
+      <c r="B675" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" s="1" t="n">
+        <v>674</v>
+      </c>
+      <c r="B676" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" s="1" t="n">
+        <v>675</v>
+      </c>
+      <c r="B677" t="inlineStr">
+        <is>
+          <t>['트친이얼나숲읽고잇어요\n즐거워요']</t>
+        </is>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" s="1" t="n">
+        <v>676</v>
+      </c>
+      <c r="B678" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" s="1" t="n">
+        <v>677</v>
+      </c>
+      <c r="B679" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" s="1" t="n">
+        <v>678</v>
+      </c>
+      <c r="B680" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" s="1" t="n">
+        <v>679</v>
+      </c>
+      <c r="B681" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" s="1" t="n">
+        <v>680</v>
+      </c>
+      <c r="B682" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" s="1" t="n">
+        <v>681</v>
+      </c>
+      <c r="B683" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" s="1" t="n">
+        <v>682</v>
+      </c>
+      <c r="B684" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" s="1" t="n">
+        <v>683</v>
+      </c>
+      <c r="B685" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" s="1" t="n">
+        <v>684</v>
+      </c>
+      <c r="B686" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" s="1" t="n">
+        <v>685</v>
+      </c>
+      <c r="B687" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" s="1" t="n">
+        <v>686</v>
+      </c>
+      <c r="B688" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" s="1" t="n">
+        <v>687</v>
+      </c>
+      <c r="B689" t="inlineStr">
+        <is>
+          <t>['5\n21\n272']</t>
+        </is>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" s="1" t="n">
+        <v>688</v>
+      </c>
+      <c r="B690" t="inlineStr">
+        <is>
+          <t>['5\n21\n272']</t>
+        </is>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" s="1" t="n">
+        <v>689</v>
+      </c>
+      <c r="B691" t="inlineStr">
+        <is>
+          <t>['5\n21\n272']</t>
+        </is>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" s="1" t="n">
+        <v>690</v>
+      </c>
+      <c r="B692" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" s="1" t="n">
+        <v>691</v>
+      </c>
+      <c r="B693" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" s="1" t="n">
+        <v>692</v>
+      </c>
+      <c r="B694" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" s="1" t="n">
+        <v>693</v>
+      </c>
+      <c r="B695" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" s="1" t="n">
+        <v>694</v>
+      </c>
+      <c r="B696" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" s="1" t="n">
+        <v>695</v>
+      </c>
+      <c r="B697" t="inlineStr">
+        <is>
+          <t>['5']</t>
+        </is>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" s="1" t="n">
+        <v>696</v>
+      </c>
+      <c r="B698" t="inlineStr">
+        <is>
+          <t>['5']</t>
+        </is>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" s="1" t="n">
+        <v>697</v>
+      </c>
+      <c r="B699" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" s="1" t="n">
+        <v>698</v>
+      </c>
+      <c r="B700" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" s="1" t="n">
+        <v>699</v>
+      </c>
+      <c r="B701" t="inlineStr">
+        <is>
+          <t>['5']</t>
+        </is>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" s="1" t="n">
+        <v>700</v>
+      </c>
+      <c r="B702" t="inlineStr">
+        <is>
+          <t>['21']</t>
+        </is>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" s="1" t="n">
+        <v>701</v>
+      </c>
+      <c r="B703" t="inlineStr">
+        <is>
+          <t>['21']</t>
+        </is>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" s="1" t="n">
+        <v>702</v>
+      </c>
+      <c r="B704" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" s="1" t="n">
+        <v>703</v>
+      </c>
+      <c r="B705" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" s="1" t="n">
+        <v>704</v>
+      </c>
+      <c r="B706" t="inlineStr">
+        <is>
+          <t>['21']</t>
+        </is>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" s="1" t="n">
+        <v>705</v>
+      </c>
+      <c r="B707" t="inlineStr">
+        <is>
+          <t>['272']</t>
+        </is>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" s="1" t="n">
+        <v>706</v>
+      </c>
+      <c r="B708" t="inlineStr">
+        <is>
+          <t>['272']</t>
+        </is>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" s="1" t="n">
+        <v>707</v>
+      </c>
+      <c r="B709" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" s="1" t="n">
+        <v>708</v>
+      </c>
+      <c r="B710" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" s="1" t="n">
+        <v>709</v>
+      </c>
+      <c r="B711" t="inlineStr">
+        <is>
+          <t>['272']</t>
+        </is>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" s="1" t="n">
+        <v>710</v>
+      </c>
+      <c r="B712" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" s="1" t="n">
+        <v>711</v>
+      </c>
+      <c r="B713" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" s="1" t="n">
+        <v>712</v>
+      </c>
+      <c r="B714" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" s="1" t="n">
+        <v>713</v>
+      </c>
+      <c r="B715" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" s="1" t="n">
+        <v>714</v>
+      </c>
+      <c r="B716" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" s="1" t="n">
+        <v>715</v>
+      </c>
+      <c r="B717" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" s="1" t="n">
+        <v>716</v>
+      </c>
+      <c r="B718" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" s="1" t="n">
+        <v>717</v>
+      </c>
+      <c r="B719" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" s="1" t="n">
+        <v>718</v>
+      </c>
+      <c r="B720" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" s="1" t="n">
+        <v>719</v>
+      </c>
+      <c r="B721" t="inlineStr">
+        <is>
+          <t>['사지\n@Aspirin_4140\n·\n2023년 11월 4일\n인간의 70%가 물이니까 우리가 물을 마시는 것은 사실상 거의 식인을 하는것과 다름없는 것입니다.\n1\n17\n2.4천']</t>
+        </is>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" s="1" t="n">
+        <v>720</v>
+      </c>
+      <c r="B722" t="inlineStr">
+        <is>
+          <t>['사지\n@Aspirin_4140\n·\n2023년 11월 4일\n인간의 70%가 물이니까 우리가 물을 마시는 것은 사실상 거의 식인을 하는것과 다름없는 것입니다.\n1\n17\n2.4천']</t>
+        </is>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" s="1" t="n">
+        <v>721</v>
+      </c>
+      <c r="B723" t="inlineStr">
+        <is>
+          <t>['사지\n@Aspirin_4140\n·\n2023년 11월 4일\n인간의 70%가 물이니까 우리가 물을 마시는 것은 사실상 거의 식인을 하는것과 다름없는 것입니다.\n1\n17\n2.4천']</t>
+        </is>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" s="1" t="n">
+        <v>722</v>
+      </c>
+      <c r="B724" t="inlineStr">
+        <is>
+          <t>['사지\n@Aspirin_4140\n·\n2023년 11월 4일\n인간의 70%가 물이니까 우리가 물을 마시는 것은 사실상 거의 식인을 하는것과 다름없는 것입니다.\n1\n17\n2.4천']</t>
+        </is>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" s="1" t="n">
+        <v>723</v>
+      </c>
+      <c r="B725" t="inlineStr">
+        <is>
+          <t>['사지\n@Aspirin_4140\n·\n2023년 11월 4일\n인간의 70%가 물이니까 우리가 물을 마시는 것은 사실상 거의 식인을 하는것과 다름없는 것입니다.\n1\n17\n2.4천']</t>
+        </is>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" s="1" t="n">
+        <v>724</v>
+      </c>
+      <c r="B726" t="inlineStr">
+        <is>
+          <t>['사지\n@Aspirin_4140\n·\n2023년 11월 4일\n인간의 70%가 물이니까 우리가 물을 마시는 것은 사실상 거의 식인을 하는것과 다름없는 것입니다.\n1\n17\n2.4천']</t>
+        </is>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" s="1" t="n">
+        <v>725</v>
+      </c>
+      <c r="B727" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" s="1" t="n">
+        <v>726</v>
+      </c>
+      <c r="B728" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" s="1" t="n">
+        <v>727</v>
+      </c>
+      <c r="B729" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" s="1" t="n">
+        <v>728</v>
+      </c>
+      <c r="B730" t="inlineStr">
+        <is>
+          <t>['사지\n@Aspirin_4140\n·\n2023년 11월 4일\n인간의 70%가 물이니까 우리가 물을 마시는 것은 사실상 거의 식인을 하는것과 다름없는 것입니다.\n1\n17\n2.4천']</t>
+        </is>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" s="1" t="n">
+        <v>729</v>
+      </c>
+      <c r="B731" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" s="1" t="n">
+        <v>730</v>
+      </c>
+      <c r="B732" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" s="1" t="n">
+        <v>731</v>
+      </c>
+      <c r="B733" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" s="1" t="n">
+        <v>732</v>
+      </c>
+      <c r="B734" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" s="1" t="n">
+        <v>733</v>
+      </c>
+      <c r="B735" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" s="1" t="n">
+        <v>734</v>
+      </c>
+      <c r="B736" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" s="1" t="n">
+        <v>735</v>
+      </c>
+      <c r="B737" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" s="1" t="n">
+        <v>736</v>
+      </c>
+      <c r="B738" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" s="1" t="n">
+        <v>737</v>
+      </c>
+      <c r="B739" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" s="1" t="n">
+        <v>738</v>
+      </c>
+      <c r="B740" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" s="1" t="n">
+        <v>739</v>
+      </c>
+      <c r="B741" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" s="1" t="n">
+        <v>740</v>
+      </c>
+      <c r="B742" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" s="1" t="n">
+        <v>741</v>
+      </c>
+      <c r="B743" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" s="1" t="n">
+        <v>742</v>
+      </c>
+      <c r="B744" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" s="1" t="n">
+        <v>743</v>
+      </c>
+      <c r="B745" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" s="1" t="n">
+        <v>744</v>
+      </c>
+      <c r="B746" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" s="1" t="n">
+        <v>745</v>
+      </c>
+      <c r="B747" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" s="1" t="n">
+        <v>746</v>
+      </c>
+      <c r="B748" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" s="1" t="n">
+        <v>747</v>
+      </c>
+      <c r="B749" t="inlineStr">
+        <is>
+          <t>['사지\n@Aspirin_4140\n·\n2023년 11월 4일\n인간의 70%가 물이니까 우리가 물을 마시는 것은 사실상 거의 식인을 하는것과 다름없는 것입니다.\n1\n17\n2.4천']</t>
+        </is>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" s="1" t="n">
+        <v>748</v>
+      </c>
+      <c r="B750" t="inlineStr">
+        <is>
+          <t>['사지\n@Aspirin_4140\n·\n2023년 11월 4일']</t>
+        </is>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" s="1" t="n">
+        <v>749</v>
+      </c>
+      <c r="B751" t="inlineStr">
+        <is>
+          <t>['사지\n@Aspirin_4140\n·\n2023년 11월 4일']</t>
+        </is>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" s="1" t="n">
+        <v>750</v>
+      </c>
+      <c r="B752" t="inlineStr">
+        <is>
+          <t>['사지\n@Aspirin_4140\n·\n2023년 11월 4일']</t>
+        </is>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" s="1" t="n">
+        <v>751</v>
+      </c>
+      <c r="B753" t="inlineStr">
+        <is>
+          <t>['사지\n@Aspirin_4140\n·\n2023년 11월 4일']</t>
+        </is>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" s="1" t="n">
+        <v>752</v>
+      </c>
+      <c r="B754" t="inlineStr">
+        <is>
+          <t>['사지\n@Aspirin_4140\n·\n2023년 11월 4일']</t>
+        </is>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" s="1" t="n">
+        <v>753</v>
+      </c>
+      <c r="B755" t="inlineStr">
+        <is>
+          <t>['사지']</t>
+        </is>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" s="1" t="n">
+        <v>754</v>
+      </c>
+      <c r="B756" t="inlineStr">
+        <is>
+          <t>['사지']</t>
+        </is>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" s="1" t="n">
+        <v>755</v>
+      </c>
+      <c r="B757" t="inlineStr">
+        <is>
+          <t>['사지']</t>
+        </is>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" s="1" t="n">
+        <v>756</v>
+      </c>
+      <c r="B758" t="inlineStr">
+        <is>
+          <t>['사지']</t>
+        </is>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" s="1" t="n">
+        <v>757</v>
+      </c>
+      <c r="B759" t="inlineStr">
+        <is>
+          <t>['@Aspirin_4140\n·\n2023년 11월 4일']</t>
+        </is>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" s="1" t="n">
+        <v>758</v>
+      </c>
+      <c r="B760" t="inlineStr">
+        <is>
+          <t>['@Aspirin_4140\n·\n2023년 11월 4일']</t>
+        </is>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" s="1" t="n">
+        <v>759</v>
+      </c>
+      <c r="B761" t="inlineStr">
+        <is>
+          <t>['@Aspirin_4140']</t>
+        </is>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" s="1" t="n">
+        <v>760</v>
+      </c>
+      <c r="B762" t="inlineStr">
+        <is>
+          <t>['@Aspirin_4140']</t>
+        </is>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" s="1" t="n">
+        <v>761</v>
+      </c>
+      <c r="B763" t="inlineStr">
+        <is>
+          <t>['2023년 11월 4일']</t>
+        </is>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" s="1" t="n">
+        <v>762</v>
+      </c>
+      <c r="B764" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" s="1" t="n">
+        <v>763</v>
+      </c>
+      <c r="B765" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" s="1" t="n">
+        <v>764</v>
+      </c>
+      <c r="B766" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" s="1" t="n">
+        <v>765</v>
+      </c>
+      <c r="B767" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" s="1" t="n">
+        <v>766</v>
+      </c>
+      <c r="B768" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" s="1" t="n">
+        <v>767</v>
+      </c>
+      <c r="B769" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" s="1" t="n">
+        <v>768</v>
+      </c>
+      <c r="B770" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" s="1" t="n">
+        <v>769</v>
+      </c>
+      <c r="B771" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" s="1" t="n">
+        <v>770</v>
+      </c>
+      <c r="B772" t="inlineStr">
+        <is>
+          <t>['인간의 70%가 물이니까 우리가 물을 마시는 것은 사실상 거의 식인을 하는것과 다름없는 것입니다.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" s="1" t="n">
+        <v>771</v>
+      </c>
+      <c r="B773" t="inlineStr">
+        <is>
+          <t>['1\n17\n2.4천']</t>
+        </is>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" s="1" t="n">
+        <v>772</v>
+      </c>
+      <c r="B774" t="inlineStr">
+        <is>
+          <t>['1\n17\n2.4천']</t>
+        </is>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" s="1" t="n">
+        <v>773</v>
+      </c>
+      <c r="B775" t="inlineStr">
+        <is>
+          <t>['1\n17\n2.4천']</t>
+        </is>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" s="1" t="n">
+        <v>774</v>
+      </c>
+      <c r="B776" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" s="1" t="n">
+        <v>775</v>
+      </c>
+      <c r="B777" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" s="1" t="n">
+        <v>776</v>
+      </c>
+      <c r="B778" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" s="1" t="n">
+        <v>777</v>
+      </c>
+      <c r="B779" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" s="1" t="n">
+        <v>778</v>
+      </c>
+      <c r="B780" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" s="1" t="n">
+        <v>779</v>
+      </c>
+      <c r="B781" t="inlineStr">
+        <is>
+          <t>['1']</t>
+        </is>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" s="1" t="n">
+        <v>780</v>
+      </c>
+      <c r="B782" t="inlineStr">
+        <is>
+          <t>['1']</t>
+        </is>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" s="1" t="n">
+        <v>781</v>
+      </c>
+      <c r="B783" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" s="1" t="n">
+        <v>782</v>
+      </c>
+      <c r="B784" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" s="1" t="n">
+        <v>783</v>
+      </c>
+      <c r="B785" t="inlineStr">
+        <is>
+          <t>['1']</t>
+        </is>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" s="1" t="n">
+        <v>784</v>
+      </c>
+      <c r="B786" t="inlineStr">
+        <is>
+          <t>['17']</t>
+        </is>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" s="1" t="n">
+        <v>785</v>
+      </c>
+      <c r="B787" t="inlineStr">
+        <is>
+          <t>['17']</t>
+        </is>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" s="1" t="n">
+        <v>786</v>
+      </c>
+      <c r="B788" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" s="1" t="n">
+        <v>787</v>
+      </c>
+      <c r="B789" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" s="1" t="n">
+        <v>788</v>
+      </c>
+      <c r="B790" t="inlineStr">
+        <is>
+          <t>['17']</t>
+        </is>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" s="1" t="n">
+        <v>789</v>
+      </c>
+      <c r="B791" t="inlineStr">
+        <is>
+          <t>['2.4천']</t>
+        </is>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" s="1" t="n">
+        <v>790</v>
+      </c>
+      <c r="B792" t="inlineStr">
+        <is>
+          <t>['2.4천']</t>
+        </is>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" s="1" t="n">
+        <v>791</v>
+      </c>
+      <c r="B793" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" s="1" t="n">
+        <v>792</v>
+      </c>
+      <c r="B794" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" s="1" t="n">
+        <v>793</v>
+      </c>
+      <c r="B795" t="inlineStr">
+        <is>
+          <t>['2.4천']</t>
+        </is>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" s="1" t="n">
+        <v>794</v>
+      </c>
+      <c r="B796" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" s="1" t="n">
+        <v>795</v>
+      </c>
+      <c r="B797" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" s="1" t="n">
+        <v>796</v>
+      </c>
+      <c r="B798" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" s="1" t="n">
+        <v>797</v>
+      </c>
+      <c r="B799" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" s="1" t="n">
+        <v>798</v>
+      </c>
+      <c r="B800" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" s="1" t="n">
+        <v>799</v>
+      </c>
+      <c r="B801" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" s="1" t="n">
+        <v>800</v>
+      </c>
+      <c r="B802" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" s="1" t="n">
+        <v>801</v>
+      </c>
+      <c r="B803" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" s="1" t="n">
+        <v>802</v>
+      </c>
+      <c r="B804" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" s="1" t="n">
+        <v>803</v>
+      </c>
+      <c r="B805" t="inlineStr">
+        <is>
+          <t>['사지\n@Aspirin_4140\n·\n4월 7일\n애인 사귀는 족족 죽이고 곡뽑아내던 미친살인마음악가가\n곡을 포기하면서까지 안 죽이고 곁에 살려두고싶다고생각하게되는 그런 사람을 만나버려서 혼란스러워하는걸 보고싶다\n2\n18\n212']</t>
+        </is>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" s="1" t="n">
+        <v>804</v>
+      </c>
+      <c r="B806" t="inlineStr">
+        <is>
+          <t>['사지\n@Aspirin_4140\n·\n4월 7일\n애인 사귀는 족족 죽이고 곡뽑아내던 미친살인마음악가가\n곡을 포기하면서까지 안 죽이고 곁에 살려두고싶다고생각하게되는 그런 사람을 만나버려서 혼란스러워하는걸 보고싶다\n2\n18\n212']</t>
+        </is>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" s="1" t="n">
+        <v>805</v>
+      </c>
+      <c r="B807" t="inlineStr">
+        <is>
+          <t>['사지\n@Aspirin_4140\n·\n4월 7일\n애인 사귀는 족족 죽이고 곡뽑아내던 미친살인마음악가가\n곡을 포기하면서까지 안 죽이고 곁에 살려두고싶다고생각하게되는 그런 사람을 만나버려서 혼란스러워하는걸 보고싶다\n2\n18\n212']</t>
+        </is>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" s="1" t="n">
+        <v>806</v>
+      </c>
+      <c r="B808" t="inlineStr">
+        <is>
+          <t>['사지\n@Aspirin_4140\n·\n4월 7일\n애인 사귀는 족족 죽이고 곡뽑아내던 미친살인마음악가가\n곡을 포기하면서까지 안 죽이고 곁에 살려두고싶다고생각하게되는 그런 사람을 만나버려서 혼란스러워하는걸 보고싶다\n2\n18\n212']</t>
+        </is>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" s="1" t="n">
+        <v>807</v>
+      </c>
+      <c r="B809" t="inlineStr">
+        <is>
+          <t>['사지\n@Aspirin_4140\n·\n4월 7일\n애인 사귀는 족족 죽이고 곡뽑아내던 미친살인마음악가가\n곡을 포기하면서까지 안 죽이고 곁에 살려두고싶다고생각하게되는 그런 사람을 만나버려서 혼란스러워하는걸 보고싶다\n2\n18\n212']</t>
+        </is>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" s="1" t="n">
+        <v>808</v>
+      </c>
+      <c r="B810" t="inlineStr">
+        <is>
+          <t>['사지\n@Aspirin_4140\n·\n4월 7일\n애인 사귀는 족족 죽이고 곡뽑아내던 미친살인마음악가가\n곡을 포기하면서까지 안 죽이고 곁에 살려두고싶다고생각하게되는 그런 사람을 만나버려서 혼란스러워하는걸 보고싶다\n2\n18\n212']</t>
+        </is>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" s="1" t="n">
+        <v>809</v>
+      </c>
+      <c r="B811" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" s="1" t="n">
+        <v>810</v>
+      </c>
+      <c r="B812" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" s="1" t="n">
+        <v>811</v>
+      </c>
+      <c r="B813" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" s="1" t="n">
+        <v>812</v>
+      </c>
+      <c r="B814" t="inlineStr">
+        <is>
+          <t>['사지\n@Aspirin_4140\n·\n4월 7일\n애인 사귀는 족족 죽이고 곡뽑아내던 미친살인마음악가가\n곡을 포기하면서까지 안 죽이고 곁에 살려두고싶다고생각하게되는 그런 사람을 만나버려서 혼란스러워하는걸 보고싶다\n2\n18\n212']</t>
+        </is>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" s="1" t="n">
+        <v>813</v>
+      </c>
+      <c r="B815" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" s="1" t="n">
+        <v>814</v>
+      </c>
+      <c r="B816" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" s="1" t="n">
+        <v>815</v>
+      </c>
+      <c r="B817" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" s="1" t="n">
+        <v>816</v>
+      </c>
+      <c r="B818" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" s="1" t="n">
+        <v>817</v>
+      </c>
+      <c r="B819" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" s="1" t="n">
+        <v>818</v>
+      </c>
+      <c r="B820" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" s="1" t="n">
+        <v>819</v>
+      </c>
+      <c r="B821" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" s="1" t="n">
+        <v>820</v>
+      </c>
+      <c r="B822" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" s="1" t="n">
+        <v>821</v>
+      </c>
+      <c r="B823" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" s="1" t="n">
+        <v>822</v>
+      </c>
+      <c r="B824" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" s="1" t="n">
+        <v>823</v>
+      </c>
+      <c r="B825" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" s="1" t="n">
+        <v>824</v>
+      </c>
+      <c r="B826" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" s="1" t="n">
+        <v>825</v>
+      </c>
+      <c r="B827" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" s="1" t="n">
+        <v>826</v>
+      </c>
+      <c r="B828" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" s="1" t="n">
+        <v>827</v>
+      </c>
+      <c r="B829" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" s="1" t="n">
+        <v>828</v>
+      </c>
+      <c r="B830" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" s="1" t="n">
+        <v>829</v>
+      </c>
+      <c r="B831" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" s="1" t="n">
+        <v>830</v>
+      </c>
+      <c r="B832" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" s="1" t="n">
+        <v>831</v>
+      </c>
+      <c r="B833" t="inlineStr">
+        <is>
+          <t>['사지\n@Aspirin_4140\n·\n4월 7일\n애인 사귀는 족족 죽이고 곡뽑아내던 미친살인마음악가가\n곡을 포기하면서까지 안 죽이고 곁에 살려두고싶다고생각하게되는 그런 사람을 만나버려서 혼란스러워하는걸 보고싶다\n2\n18\n212']</t>
+        </is>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" s="1" t="n">
+        <v>832</v>
+      </c>
+      <c r="B834" t="inlineStr">
+        <is>
+          <t>['사지\n@Aspirin_4140\n·\n4월 7일']</t>
+        </is>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" s="1" t="n">
+        <v>833</v>
+      </c>
+      <c r="B835" t="inlineStr">
+        <is>
+          <t>['사지\n@Aspirin_4140\n·\n4월 7일']</t>
+        </is>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" s="1" t="n">
+        <v>834</v>
+      </c>
+      <c r="B836" t="inlineStr">
+        <is>
+          <t>['사지\n@Aspirin_4140\n·\n4월 7일']</t>
+        </is>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" s="1" t="n">
+        <v>835</v>
+      </c>
+      <c r="B837" t="inlineStr">
+        <is>
+          <t>['사지\n@Aspirin_4140\n·\n4월 7일']</t>
+        </is>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" s="1" t="n">
+        <v>836</v>
+      </c>
+      <c r="B838" t="inlineStr">
+        <is>
+          <t>['사지\n@Aspirin_4140\n·\n4월 7일']</t>
+        </is>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" s="1" t="n">
+        <v>837</v>
+      </c>
+      <c r="B839" t="inlineStr">
+        <is>
+          <t>['사지']</t>
+        </is>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" s="1" t="n">
+        <v>838</v>
+      </c>
+      <c r="B840" t="inlineStr">
+        <is>
+          <t>['사지']</t>
+        </is>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" s="1" t="n">
+        <v>839</v>
+      </c>
+      <c r="B841" t="inlineStr">
+        <is>
+          <t>['사지']</t>
+        </is>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" s="1" t="n">
+        <v>840</v>
+      </c>
+      <c r="B842" t="inlineStr">
+        <is>
+          <t>['사지']</t>
+        </is>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" s="1" t="n">
+        <v>841</v>
+      </c>
+      <c r="B843" t="inlineStr">
+        <is>
+          <t>['@Aspirin_4140\n·\n4월 7일']</t>
+        </is>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" s="1" t="n">
+        <v>842</v>
+      </c>
+      <c r="B844" t="inlineStr">
+        <is>
+          <t>['@Aspirin_4140\n·\n4월 7일']</t>
+        </is>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" s="1" t="n">
+        <v>843</v>
+      </c>
+      <c r="B845" t="inlineStr">
+        <is>
+          <t>['@Aspirin_4140']</t>
+        </is>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" s="1" t="n">
+        <v>844</v>
+      </c>
+      <c r="B846" t="inlineStr">
+        <is>
+          <t>['@Aspirin_4140']</t>
+        </is>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" s="1" t="n">
+        <v>845</v>
+      </c>
+      <c r="B847" t="inlineStr">
+        <is>
+          <t>['4월 7일']</t>
+        </is>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" s="1" t="n">
+        <v>846</v>
+      </c>
+      <c r="B848" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" s="1" t="n">
+        <v>847</v>
+      </c>
+      <c r="B849" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850" s="1" t="n">
+        <v>848</v>
+      </c>
+      <c r="B850" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" s="1" t="n">
+        <v>849</v>
+      </c>
+      <c r="B851" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" s="1" t="n">
+        <v>850</v>
+      </c>
+      <c r="B852" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" s="1" t="n">
+        <v>851</v>
+      </c>
+      <c r="B853" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" s="1" t="n">
+        <v>852</v>
+      </c>
+      <c r="B854" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" s="1" t="n">
+        <v>853</v>
+      </c>
+      <c r="B855" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" s="1" t="n">
+        <v>854</v>
+      </c>
+      <c r="B856" t="inlineStr">
+        <is>
+          <t>['애인 사귀는 족족 죽이고 곡뽑아내던 미친살인마음악가가\n곡을 포기하면서까지 안 죽이고 곁에 살려두고싶다고생각하게되는 그런 사람을 만나버려서 혼란스러워하는걸 보고싶다']</t>
+        </is>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" s="1" t="n">
+        <v>855</v>
+      </c>
+      <c r="B857" t="inlineStr">
+        <is>
+          <t>['2\n18\n212']</t>
+        </is>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" s="1" t="n">
+        <v>856</v>
+      </c>
+      <c r="B858" t="inlineStr">
+        <is>
+          <t>['2\n18\n212']</t>
+        </is>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" s="1" t="n">
+        <v>857</v>
+      </c>
+      <c r="B859" t="inlineStr">
+        <is>
+          <t>['2\n18\n212']</t>
+        </is>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860" s="1" t="n">
+        <v>858</v>
+      </c>
+      <c r="B860" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" s="1" t="n">
+        <v>859</v>
+      </c>
+      <c r="B861" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" s="1" t="n">
+        <v>860</v>
+      </c>
+      <c r="B862" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" s="1" t="n">
+        <v>861</v>
+      </c>
+      <c r="B863" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" s="1" t="n">
+        <v>862</v>
+      </c>
+      <c r="B864" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865" s="1" t="n">
+        <v>863</v>
+      </c>
+      <c r="B865" t="inlineStr">
+        <is>
+          <t>['2']</t>
+        </is>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" s="1" t="n">
+        <v>864</v>
+      </c>
+      <c r="B866" t="inlineStr">
+        <is>
+          <t>['2']</t>
+        </is>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" s="1" t="n">
+        <v>865</v>
+      </c>
+      <c r="B867" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" s="1" t="n">
+        <v>866</v>
+      </c>
+      <c r="B868" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" s="1" t="n">
+        <v>867</v>
+      </c>
+      <c r="B869" t="inlineStr">
+        <is>
+          <t>['2']</t>
+        </is>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" s="1" t="n">
+        <v>868</v>
+      </c>
+      <c r="B870" t="inlineStr">
+        <is>
+          <t>['18']</t>
+        </is>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" s="1" t="n">
+        <v>869</v>
+      </c>
+      <c r="B871" t="inlineStr">
+        <is>
+          <t>['18']</t>
+        </is>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" s="1" t="n">
+        <v>870</v>
+      </c>
+      <c r="B872" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873" s="1" t="n">
+        <v>871</v>
+      </c>
+      <c r="B873" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" s="1" t="n">
+        <v>872</v>
+      </c>
+      <c r="B874" t="inlineStr">
+        <is>
+          <t>['18']</t>
+        </is>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" s="1" t="n">
+        <v>873</v>
+      </c>
+      <c r="B875" t="inlineStr">
+        <is>
+          <t>['212']</t>
+        </is>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" s="1" t="n">
+        <v>874</v>
+      </c>
+      <c r="B876" t="inlineStr">
+        <is>
+          <t>['212']</t>
+        </is>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" s="1" t="n">
+        <v>875</v>
+      </c>
+      <c r="B877" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" s="1" t="n">
+        <v>876</v>
+      </c>
+      <c r="B878" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" s="1" t="n">
+        <v>877</v>
+      </c>
+      <c r="B879" t="inlineStr">
+        <is>
+          <t>['212']</t>
+        </is>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" s="1" t="n">
+        <v>878</v>
+      </c>
+      <c r="B880" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" s="1" t="n">
+        <v>879</v>
+      </c>
+      <c r="B881" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882" s="1" t="n">
+        <v>880</v>
+      </c>
+      <c r="B882" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" s="1" t="n">
+        <v>881</v>
+      </c>
+      <c r="B883" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="884">
+      <c r="A884" s="1" t="n">
+        <v>882</v>
+      </c>
+      <c r="B884" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" s="1" t="n">
+        <v>883</v>
+      </c>
+      <c r="B885" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886" s="1" t="n">
+        <v>884</v>
+      </c>
+      <c r="B886" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" s="1" t="n">
+        <v>885</v>
+      </c>
+      <c r="B887" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888" s="1" t="n">
+        <v>886</v>
+      </c>
+      <c r="B888" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889" s="1" t="n">
+        <v>887</v>
+      </c>
+      <c r="B889" t="inlineStr">
+        <is>
+          <t>['사지\n@Aspirin_4140\n·\n3월 9일\n러시아소설특: 맨날 속으로는 극대노하고 온갖생각 망상다하고 일어나지도않은일가지고 내가오늘진짜다죽인다다패버릴거다 이러고 나오는데 정작 실제상황에선 아무것도못하고 쭈굴하게있다가 집에와서 잠이나잠\n3\n16\n274']</t>
+        </is>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890" s="1" t="n">
+        <v>888</v>
+      </c>
+      <c r="B890" t="inlineStr">
+        <is>
+          <t>['사지\n@Aspirin_4140\n·\n3월 9일\n러시아소설특: 맨날 속으로는 극대노하고 온갖생각 망상다하고 일어나지도않은일가지고 내가오늘진짜다죽인다다패버릴거다 이러고 나오는데 정작 실제상황에선 아무것도못하고 쭈굴하게있다가 집에와서 잠이나잠\n3\n16\n274']</t>
+        </is>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891" s="1" t="n">
+        <v>889</v>
+      </c>
+      <c r="B891" t="inlineStr">
+        <is>
+          <t>['사지\n@Aspirin_4140\n·\n3월 9일\n러시아소설특: 맨날 속으로는 극대노하고 온갖생각 망상다하고 일어나지도않은일가지고 내가오늘진짜다죽인다다패버릴거다 이러고 나오는데 정작 실제상황에선 아무것도못하고 쭈굴하게있다가 집에와서 잠이나잠\n3\n16\n274']</t>
+        </is>
+      </c>
+    </row>
+    <row r="892">
+      <c r="A892" s="1" t="n">
+        <v>890</v>
+      </c>
+      <c r="B892" t="inlineStr">
+        <is>
+          <t>['사지\n@Aspirin_4140\n·\n3월 9일\n러시아소설특: 맨날 속으로는 극대노하고 온갖생각 망상다하고 일어나지도않은일가지고 내가오늘진짜다죽인다다패버릴거다 이러고 나오는데 정작 실제상황에선 아무것도못하고 쭈굴하게있다가 집에와서 잠이나잠\n3\n16\n274']</t>
+        </is>
+      </c>
+    </row>
+    <row r="893">
+      <c r="A893" s="1" t="n">
+        <v>891</v>
+      </c>
+      <c r="B893" t="inlineStr">
+        <is>
+          <t>['사지\n@Aspirin_4140\n·\n3월 9일\n러시아소설특: 맨날 속으로는 극대노하고 온갖생각 망상다하고 일어나지도않은일가지고 내가오늘진짜다죽인다다패버릴거다 이러고 나오는데 정작 실제상황에선 아무것도못하고 쭈굴하게있다가 집에와서 잠이나잠\n3\n16\n274']</t>
+        </is>
+      </c>
+    </row>
+    <row r="894">
+      <c r="A894" s="1" t="n">
+        <v>892</v>
+      </c>
+      <c r="B894" t="inlineStr">
+        <is>
+          <t>['사지\n@Aspirin_4140\n·\n3월 9일\n러시아소설특: 맨날 속으로는 극대노하고 온갖생각 망상다하고 일어나지도않은일가지고 내가오늘진짜다죽인다다패버릴거다 이러고 나오는데 정작 실제상황에선 아무것도못하고 쭈굴하게있다가 집에와서 잠이나잠\n3\n16\n274']</t>
+        </is>
+      </c>
+    </row>
+    <row r="895">
+      <c r="A895" s="1" t="n">
+        <v>893</v>
+      </c>
+      <c r="B895" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="896">
+      <c r="A896" s="1" t="n">
+        <v>894</v>
+      </c>
+      <c r="B896" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="897">
+      <c r="A897" s="1" t="n">
+        <v>895</v>
+      </c>
+      <c r="B897" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="898">
+      <c r="A898" s="1" t="n">
+        <v>896</v>
+      </c>
+      <c r="B898" t="inlineStr">
+        <is>
+          <t>['사지\n@Aspirin_4140\n·\n3월 9일\n러시아소설특: 맨날 속으로는 극대노하고 온갖생각 망상다하고 일어나지도않은일가지고 내가오늘진짜다죽인다다패버릴거다 이러고 나오는데 정작 실제상황에선 아무것도못하고 쭈굴하게있다가 집에와서 잠이나잠\n3\n16\n274']</t>
+        </is>
+      </c>
+    </row>
+    <row r="899">
+      <c r="A899" s="1" t="n">
+        <v>897</v>
+      </c>
+      <c r="B899" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="900">
+      <c r="A900" s="1" t="n">
+        <v>898</v>
+      </c>
+      <c r="B900" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="901">
+      <c r="A901" s="1" t="n">
+        <v>899</v>
+      </c>
+      <c r="B901" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="902">
+      <c r="A902" s="1" t="n">
+        <v>900</v>
+      </c>
+      <c r="B902" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="903">
+      <c r="A903" s="1" t="n">
+        <v>901</v>
+      </c>
+      <c r="B903" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="904">
+      <c r="A904" s="1" t="n">
+        <v>902</v>
+      </c>
+      <c r="B904" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="905">
+      <c r="A905" s="1" t="n">
+        <v>903</v>
+      </c>
+      <c r="B905" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="906">
+      <c r="A906" s="1" t="n">
+        <v>904</v>
+      </c>
+      <c r="B906" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="907">
+      <c r="A907" s="1" t="n">
+        <v>905</v>
+      </c>
+      <c r="B907" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="908">
+      <c r="A908" s="1" t="n">
+        <v>906</v>
+      </c>
+      <c r="B908" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="909">
+      <c r="A909" s="1" t="n">
+        <v>907</v>
+      </c>
+      <c r="B909" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="910">
+      <c r="A910" s="1" t="n">
+        <v>908</v>
+      </c>
+      <c r="B910" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="911">
+      <c r="A911" s="1" t="n">
+        <v>909</v>
+      </c>
+      <c r="B911" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="912">
+      <c r="A912" s="1" t="n">
+        <v>910</v>
+      </c>
+      <c r="B912" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="913">
+      <c r="A913" s="1" t="n">
+        <v>911</v>
+      </c>
+      <c r="B913" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="914">
+      <c r="A914" s="1" t="n">
+        <v>912</v>
+      </c>
+      <c r="B914" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="915">
+      <c r="A915" s="1" t="n">
+        <v>913</v>
+      </c>
+      <c r="B915" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="916">
+      <c r="A916" s="1" t="n">
+        <v>914</v>
+      </c>
+      <c r="B916" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="917">
+      <c r="A917" s="1" t="n">
+        <v>915</v>
+      </c>
+      <c r="B917" t="inlineStr">
+        <is>
+          <t>['사지\n@Aspirin_4140\n·\n3월 9일\n러시아소설특: 맨날 속으로는 극대노하고 온갖생각 망상다하고 일어나지도않은일가지고 내가오늘진짜다죽인다다패버릴거다 이러고 나오는데 정작 실제상황에선 아무것도못하고 쭈굴하게있다가 집에와서 잠이나잠\n3\n16\n274']</t>
+        </is>
+      </c>
+    </row>
+    <row r="918">
+      <c r="A918" s="1" t="n">
+        <v>916</v>
+      </c>
+      <c r="B918" t="inlineStr">
+        <is>
+          <t>['사지\n@Aspirin_4140\n·\n3월 9일']</t>
+        </is>
+      </c>
+    </row>
+    <row r="919">
+      <c r="A919" s="1" t="n">
+        <v>917</v>
+      </c>
+      <c r="B919" t="inlineStr">
+        <is>
+          <t>['사지\n@Aspirin_4140\n·\n3월 9일']</t>
+        </is>
+      </c>
+    </row>
+    <row r="920">
+      <c r="A920" s="1" t="n">
+        <v>918</v>
+      </c>
+      <c r="B920" t="inlineStr">
+        <is>
+          <t>['사지\n@Aspirin_4140\n·\n3월 9일']</t>
+        </is>
+      </c>
+    </row>
+    <row r="921">
+      <c r="A921" s="1" t="n">
+        <v>919</v>
+      </c>
+      <c r="B921" t="inlineStr">
+        <is>
+          <t>['사지\n@Aspirin_4140\n·\n3월 9일']</t>
+        </is>
+      </c>
+    </row>
+    <row r="922">
+      <c r="A922" s="1" t="n">
+        <v>920</v>
+      </c>
+      <c r="B922" t="inlineStr">
+        <is>
+          <t>['사지\n@Aspirin_4140\n·\n3월 9일']</t>
+        </is>
+      </c>
+    </row>
+    <row r="923">
+      <c r="A923" s="1" t="n">
+        <v>921</v>
+      </c>
+      <c r="B923" t="inlineStr">
+        <is>
+          <t>['사지']</t>
+        </is>
+      </c>
+    </row>
+    <row r="924">
+      <c r="A924" s="1" t="n">
+        <v>922</v>
+      </c>
+      <c r="B924" t="inlineStr">
+        <is>
+          <t>['사지']</t>
+        </is>
+      </c>
+    </row>
+    <row r="925">
+      <c r="A925" s="1" t="n">
+        <v>923</v>
+      </c>
+      <c r="B925" t="inlineStr">
+        <is>
+          <t>['사지']</t>
+        </is>
+      </c>
+    </row>
+    <row r="926">
+      <c r="A926" s="1" t="n">
+        <v>924</v>
+      </c>
+      <c r="B926" t="inlineStr">
+        <is>
+          <t>['사지']</t>
+        </is>
+      </c>
+    </row>
+    <row r="927">
+      <c r="A927" s="1" t="n">
+        <v>925</v>
+      </c>
+      <c r="B927" t="inlineStr">
+        <is>
+          <t>['@Aspirin_4140\n·\n3월 9일']</t>
+        </is>
+      </c>
+    </row>
+    <row r="928">
+      <c r="A928" s="1" t="n">
+        <v>926</v>
+      </c>
+      <c r="B928" t="inlineStr">
+        <is>
+          <t>['@Aspirin_4140\n·\n3월 9일']</t>
+        </is>
+      </c>
+    </row>
+    <row r="929">
+      <c r="A929" s="1" t="n">
+        <v>927</v>
+      </c>
+      <c r="B929" t="inlineStr">
+        <is>
+          <t>['@Aspirin_4140']</t>
+        </is>
+      </c>
+    </row>
+    <row r="930">
+      <c r="A930" s="1" t="n">
+        <v>928</v>
+      </c>
+      <c r="B930" t="inlineStr">
+        <is>
+          <t>['@Aspirin_4140']</t>
+        </is>
+      </c>
+    </row>
+    <row r="931">
+      <c r="A931" s="1" t="n">
+        <v>929</v>
+      </c>
+      <c r="B931" t="inlineStr">
+        <is>
+          <t>['3월 9일']</t>
+        </is>
+      </c>
+    </row>
+    <row r="932">
+      <c r="A932" s="1" t="n">
+        <v>930</v>
+      </c>
+      <c r="B932" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="933">
+      <c r="A933" s="1" t="n">
+        <v>931</v>
+      </c>
+      <c r="B933" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="934">
+      <c r="A934" s="1" t="n">
+        <v>932</v>
+      </c>
+      <c r="B934" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="935">
+      <c r="A935" s="1" t="n">
+        <v>933</v>
+      </c>
+      <c r="B935" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="936">
+      <c r="A936" s="1" t="n">
+        <v>934</v>
+      </c>
+      <c r="B936" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="937">
+      <c r="A937" s="1" t="n">
+        <v>935</v>
+      </c>
+      <c r="B937" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="938">
+      <c r="A938" s="1" t="n">
+        <v>936</v>
+      </c>
+      <c r="B938" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="939">
+      <c r="A939" s="1" t="n">
+        <v>937</v>
+      </c>
+      <c r="B939" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="940">
+      <c r="A940" s="1" t="n">
+        <v>938</v>
+      </c>
+      <c r="B940" t="inlineStr">
+        <is>
+          <t>['러시아소설특: 맨날 속으로는 극대노하고 온갖생각 망상다하고 일어나지도않은일가지고 내가오늘진짜다죽인다다패버릴거다 이러고 나오는데 정작 실제상황에선 아무것도못하고 쭈굴하게있다가 집에와서 잠이나잠']</t>
+        </is>
+      </c>
+    </row>
+    <row r="941">
+      <c r="A941" s="1" t="n">
+        <v>939</v>
+      </c>
+      <c r="B941" t="inlineStr">
+        <is>
+          <t>['3\n16\n274']</t>
+        </is>
+      </c>
+    </row>
+    <row r="942">
+      <c r="A942" s="1" t="n">
+        <v>940</v>
+      </c>
+      <c r="B942" t="inlineStr">
+        <is>
+          <t>['3\n16\n274']</t>
+        </is>
+      </c>
+    </row>
+    <row r="943">
+      <c r="A943" s="1" t="n">
+        <v>941</v>
+      </c>
+      <c r="B943" t="inlineStr">
+        <is>
+          <t>['3\n16\n274']</t>
+        </is>
+      </c>
+    </row>
+    <row r="944">
+      <c r="A944" s="1" t="n">
+        <v>942</v>
+      </c>
+      <c r="B944" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="945">
+      <c r="A945" s="1" t="n">
+        <v>943</v>
+      </c>
+      <c r="B945" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="946">
+      <c r="A946" s="1" t="n">
+        <v>944</v>
+      </c>
+      <c r="B946" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="947">
+      <c r="A947" s="1" t="n">
+        <v>945</v>
+      </c>
+      <c r="B947" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="948">
+      <c r="A948" s="1" t="n">
+        <v>946</v>
+      </c>
+      <c r="B948" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="949">
+      <c r="A949" s="1" t="n">
+        <v>947</v>
+      </c>
+      <c r="B949" t="inlineStr">
+        <is>
+          <t>['3']</t>
+        </is>
+      </c>
+    </row>
+    <row r="950">
+      <c r="A950" s="1" t="n">
+        <v>948</v>
+      </c>
+      <c r="B950" t="inlineStr">
+        <is>
+          <t>['3']</t>
+        </is>
+      </c>
+    </row>
+    <row r="951">
+      <c r="A951" s="1" t="n">
+        <v>949</v>
+      </c>
+      <c r="B951" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="952">
+      <c r="A952" s="1" t="n">
+        <v>950</v>
+      </c>
+      <c r="B952" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="953">
+      <c r="A953" s="1" t="n">
+        <v>951</v>
+      </c>
+      <c r="B953" t="inlineStr">
+        <is>
+          <t>['3']</t>
+        </is>
+      </c>
+    </row>
+    <row r="954">
+      <c r="A954" s="1" t="n">
+        <v>952</v>
+      </c>
+      <c r="B954" t="inlineStr">
+        <is>
+          <t>['16']</t>
+        </is>
+      </c>
+    </row>
+    <row r="955">
+      <c r="A955" s="1" t="n">
+        <v>953</v>
+      </c>
+      <c r="B955" t="inlineStr">
+        <is>
+          <t>['16']</t>
+        </is>
+      </c>
+    </row>
+    <row r="956">
+      <c r="A956" s="1" t="n">
+        <v>954</v>
+      </c>
+      <c r="B956" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="957">
+      <c r="A957" s="1" t="n">
+        <v>955</v>
+      </c>
+      <c r="B957" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="958">
+      <c r="A958" s="1" t="n">
+        <v>956</v>
+      </c>
+      <c r="B958" t="inlineStr">
+        <is>
+          <t>['16']</t>
+        </is>
+      </c>
+    </row>
+    <row r="959">
+      <c r="A959" s="1" t="n">
+        <v>957</v>
+      </c>
+      <c r="B959" t="inlineStr">
+        <is>
+          <t>['274']</t>
+        </is>
+      </c>
+    </row>
+    <row r="960">
+      <c r="A960" s="1" t="n">
+        <v>958</v>
+      </c>
+      <c r="B960" t="inlineStr">
+        <is>
+          <t>['274']</t>
+        </is>
+      </c>
+    </row>
+    <row r="961">
+      <c r="A961" s="1" t="n">
+        <v>959</v>
+      </c>
+      <c r="B961" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="962">
+      <c r="A962" s="1" t="n">
+        <v>960</v>
+      </c>
+      <c r="B962" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="963">
+      <c r="A963" s="1" t="n">
+        <v>961</v>
+      </c>
+      <c r="B963" t="inlineStr">
+        <is>
+          <t>['274']</t>
+        </is>
+      </c>
+    </row>
+    <row r="964">
+      <c r="A964" s="1" t="n">
+        <v>962</v>
+      </c>
+      <c r="B964" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="965">
+      <c r="A965" s="1" t="n">
+        <v>963</v>
+      </c>
+      <c r="B965" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="966">
+      <c r="A966" s="1" t="n">
+        <v>964</v>
+      </c>
+      <c r="B966" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="967">
+      <c r="A967" s="1" t="n">
+        <v>965</v>
+      </c>
+      <c r="B967" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="968">
+      <c r="A968" s="1" t="n">
+        <v>966</v>
+      </c>
+      <c r="B968" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="969">
+      <c r="A969" s="1" t="n">
+        <v>967</v>
+      </c>
+      <c r="B969" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="970">
+      <c r="A970" s="1" t="n">
+        <v>968</v>
+      </c>
+      <c r="B970" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="971">
+      <c r="A971" s="1" t="n">
+        <v>969</v>
+      </c>
+      <c r="B971" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="972">
+      <c r="A972" s="1" t="n">
+        <v>970</v>
+      </c>
+      <c r="B972" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="973">
+      <c r="A973" s="1" t="n">
+        <v>971</v>
+      </c>
+      <c r="B973" t="inlineStr">
+        <is>
+          <t>['사지\n@Aspirin_4140\n·\n2월 8일\n트리키세 ㅋㅋㅋㅋㅋㅋㅋㅋ\n사실안웃김\n9\n16\n949']</t>
+        </is>
+      </c>
+    </row>
+    <row r="974">
+      <c r="A974" s="1" t="n">
+        <v>972</v>
+      </c>
+      <c r="B974" t="inlineStr">
+        <is>
+          <t>['사지\n@Aspirin_4140\n·\n2월 8일\n트리키세 ㅋㅋㅋㅋㅋㅋㅋㅋ\n사실안웃김\n9\n16\n949']</t>
+        </is>
+      </c>
+    </row>
+    <row r="975">
+      <c r="A975" s="1" t="n">
+        <v>973</v>
+      </c>
+      <c r="B975" t="inlineStr">
+        <is>
+          <t>['사지\n@Aspirin_4140\n·\n2월 8일\n트리키세 ㅋㅋㅋㅋㅋㅋㅋㅋ\n사실안웃김\n9\n16\n949']</t>
+        </is>
+      </c>
+    </row>
+    <row r="976">
+      <c r="A976" s="1" t="n">
+        <v>974</v>
+      </c>
+      <c r="B976" t="inlineStr">
+        <is>
+          <t>['사지\n@Aspirin_4140\n·\n2월 8일\n트리키세 ㅋㅋㅋㅋㅋㅋㅋㅋ\n사실안웃김\n9\n16\n949']</t>
+        </is>
+      </c>
+    </row>
+    <row r="977">
+      <c r="A977" s="1" t="n">
+        <v>975</v>
+      </c>
+      <c r="B977" t="inlineStr">
+        <is>
+          <t>['사지\n@Aspirin_4140\n·\n2월 8일\n트리키세 ㅋㅋㅋㅋㅋㅋㅋㅋ\n사실안웃김\n9\n16\n949']</t>
+        </is>
+      </c>
+    </row>
+    <row r="978">
+      <c r="A978" s="1" t="n">
+        <v>976</v>
+      </c>
+      <c r="B978" t="inlineStr">
+        <is>
+          <t>['사지\n@Aspirin_4140\n·\n2월 8일\n트리키세 ㅋㅋㅋㅋㅋㅋㅋㅋ\n사실안웃김\n9\n16\n949']</t>
+        </is>
+      </c>
+    </row>
+    <row r="979">
+      <c r="A979" s="1" t="n">
+        <v>977</v>
+      </c>
+      <c r="B979" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="980">
+      <c r="A980" s="1" t="n">
+        <v>978</v>
+      </c>
+      <c r="B980" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="981">
+      <c r="A981" s="1" t="n">
+        <v>979</v>
+      </c>
+      <c r="B981" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="982">
+      <c r="A982" s="1" t="n">
+        <v>980</v>
+      </c>
+      <c r="B982" t="inlineStr">
+        <is>
+          <t>['사지\n@Aspirin_4140\n·\n2월 8일\n트리키세 ㅋㅋㅋㅋㅋㅋㅋㅋ\n사실안웃김\n9\n16\n949']</t>
+        </is>
+      </c>
+    </row>
+    <row r="983">
+      <c r="A983" s="1" t="n">
+        <v>981</v>
+      </c>
+      <c r="B983" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="984">
+      <c r="A984" s="1" t="n">
+        <v>982</v>
+      </c>
+      <c r="B984" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="985">
+      <c r="A985" s="1" t="n">
+        <v>983</v>
+      </c>
+      <c r="B985" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="986">
+      <c r="A986" s="1" t="n">
+        <v>984</v>
+      </c>
+      <c r="B986" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="987">
+      <c r="A987" s="1" t="n">
+        <v>985</v>
+      </c>
+      <c r="B987" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="988">
+      <c r="A988" s="1" t="n">
+        <v>986</v>
+      </c>
+      <c r="B988" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="989">
+      <c r="A989" s="1" t="n">
+        <v>987</v>
+      </c>
+      <c r="B989" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="990">
+      <c r="A990" s="1" t="n">
+        <v>988</v>
+      </c>
+      <c r="B990" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="991">
+      <c r="A991" s="1" t="n">
+        <v>989</v>
+      </c>
+      <c r="B991" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="992">
+      <c r="A992" s="1" t="n">
+        <v>990</v>
+      </c>
+      <c r="B992" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="993">
+      <c r="A993" s="1" t="n">
+        <v>991</v>
+      </c>
+      <c r="B993" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="994">
+      <c r="A994" s="1" t="n">
+        <v>992</v>
+      </c>
+      <c r="B994" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="995">
+      <c r="A995" s="1" t="n">
+        <v>993</v>
+      </c>
+      <c r="B995" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="996">
+      <c r="A996" s="1" t="n">
+        <v>994</v>
+      </c>
+      <c r="B996" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="997">
+      <c r="A997" s="1" t="n">
+        <v>995</v>
+      </c>
+      <c r="B997" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="998">
+      <c r="A998" s="1" t="n">
+        <v>996</v>
+      </c>
+      <c r="B998" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="999">
+      <c r="A999" s="1" t="n">
+        <v>997</v>
+      </c>
+      <c r="B999" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1000">
+      <c r="A1000" s="1" t="n">
+        <v>998</v>
+      </c>
+      <c r="B1000" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1001">
+      <c r="A1001" s="1" t="n">
+        <v>999</v>
+      </c>
+      <c r="B1001" t="inlineStr">
+        <is>
+          <t>['사지\n@Aspirin_4140\n·\n2월 8일\n트리키세 ㅋㅋㅋㅋㅋㅋㅋㅋ\n사실안웃김\n9\n16\n949']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1002">
+      <c r="A1002" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B1002" t="inlineStr">
+        <is>
+          <t>['사지\n@Aspirin_4140\n·\n2월 8일']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1003">
+      <c r="A1003" s="1" t="n">
+        <v>1001</v>
+      </c>
+      <c r="B1003" t="inlineStr">
+        <is>
+          <t>['사지\n@Aspirin_4140\n·\n2월 8일']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1004">
+      <c r="A1004" s="1" t="n">
+        <v>1002</v>
+      </c>
+      <c r="B1004" t="inlineStr">
+        <is>
+          <t>['사지\n@Aspirin_4140\n·\n2월 8일']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1005">
+      <c r="A1005" s="1" t="n">
+        <v>1003</v>
+      </c>
+      <c r="B1005" t="inlineStr">
+        <is>
+          <t>['사지\n@Aspirin_4140\n·\n2월 8일']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1006">
+      <c r="A1006" s="1" t="n">
+        <v>1004</v>
+      </c>
+      <c r="B1006" t="inlineStr">
+        <is>
+          <t>['사지\n@Aspirin_4140\n·\n2월 8일']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1007">
+      <c r="A1007" s="1" t="n">
+        <v>1005</v>
+      </c>
+      <c r="B1007" t="inlineStr">
+        <is>
+          <t>['사지']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1008">
+      <c r="A1008" s="1" t="n">
+        <v>1006</v>
+      </c>
+      <c r="B1008" t="inlineStr">
+        <is>
+          <t>['사지']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1009">
+      <c r="A1009" s="1" t="n">
+        <v>1007</v>
+      </c>
+      <c r="B1009" t="inlineStr">
+        <is>
+          <t>['사지']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1010">
+      <c r="A1010" s="1" t="n">
+        <v>1008</v>
+      </c>
+      <c r="B1010" t="inlineStr">
+        <is>
+          <t>['사지']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1011">
+      <c r="A1011" s="1" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1011" t="inlineStr">
+        <is>
+          <t>['@Aspirin_4140\n·\n2월 8일']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1012">
+      <c r="A1012" s="1" t="n">
+        <v>1010</v>
+      </c>
+      <c r="B1012" t="inlineStr">
+        <is>
+          <t>['@Aspirin_4140\n·\n2월 8일']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1013">
+      <c r="A1013" s="1" t="n">
+        <v>1011</v>
+      </c>
+      <c r="B1013" t="inlineStr">
+        <is>
+          <t>['@Aspirin_4140']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1014">
+      <c r="A1014" s="1" t="n">
+        <v>1012</v>
+      </c>
+      <c r="B1014" t="inlineStr">
+        <is>
+          <t>['@Aspirin_4140']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1015">
+      <c r="A1015" s="1" t="n">
+        <v>1013</v>
+      </c>
+      <c r="B1015" t="inlineStr">
+        <is>
+          <t>['2월 8일']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1016">
+      <c r="A1016" s="1" t="n">
+        <v>1014</v>
+      </c>
+      <c r="B1016" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1017">
+      <c r="A1017" s="1" t="n">
+        <v>1015</v>
+      </c>
+      <c r="B1017" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1018">
+      <c r="A1018" s="1" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1018" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1019">
+      <c r="A1019" s="1" t="n">
+        <v>1017</v>
+      </c>
+      <c r="B1019" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1020">
+      <c r="A1020" s="1" t="n">
+        <v>1018</v>
+      </c>
+      <c r="B1020" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1021">
+      <c r="A1021" s="1" t="n">
+        <v>1019</v>
+      </c>
+      <c r="B1021" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1022">
+      <c r="A1022" s="1" t="n">
+        <v>1020</v>
+      </c>
+      <c r="B1022" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1023">
+      <c r="A1023" s="1" t="n">
+        <v>1021</v>
+      </c>
+      <c r="B1023" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1024">
+      <c r="A1024" s="1" t="n">
+        <v>1022</v>
+      </c>
+      <c r="B1024" t="inlineStr">
+        <is>
+          <t>['트리키세 ㅋㅋㅋㅋㅋㅋㅋㅋ\n사실안웃김']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1025">
+      <c r="A1025" s="1" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1025" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1026">
+      <c r="A1026" s="1" t="n">
+        <v>1024</v>
+      </c>
+      <c r="B1026" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1027">
+      <c r="A1027" s="1" t="n">
+        <v>1025</v>
+      </c>
+      <c r="B1027" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1028">
+      <c r="A1028" s="1" t="n">
+        <v>1026</v>
+      </c>
+      <c r="B1028" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1029">
+      <c r="A1029" s="1" t="n">
+        <v>1027</v>
+      </c>
+      <c r="B1029" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1030">
+      <c r="A1030" s="1" t="n">
+        <v>1028</v>
+      </c>
+      <c r="B1030" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1031">
+      <c r="A1031" s="1" t="n">
+        <v>1029</v>
+      </c>
+      <c r="B1031" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1032">
+      <c r="A1032" s="1" t="n">
+        <v>1030</v>
+      </c>
+      <c r="B1032" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1033">
+      <c r="A1033" s="1" t="n">
+        <v>1031</v>
+      </c>
+      <c r="B1033" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1034">
+      <c r="A1034" s="1" t="n">
+        <v>1032</v>
+      </c>
+      <c r="B1034" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1035">
+      <c r="A1035" s="1" t="n">
+        <v>1033</v>
+      </c>
+      <c r="B1035" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1036">
+      <c r="A1036" s="1" t="n">
+        <v>1034</v>
+      </c>
+      <c r="B1036" t="inlineStr">
+        <is>
+          <t>['9\n16\n949']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1037">
+      <c r="A1037" s="1" t="n">
+        <v>1035</v>
+      </c>
+      <c r="B1037" t="inlineStr">
+        <is>
+          <t>['9\n16\n949']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1038">
+      <c r="A1038" s="1" t="n">
+        <v>1036</v>
+      </c>
+      <c r="B1038" t="inlineStr">
+        <is>
+          <t>['9\n16\n949']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1039">
+      <c r="A1039" s="1" t="n">
+        <v>1037</v>
+      </c>
+      <c r="B1039" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1040">
+      <c r="A1040" s="1" t="n">
+        <v>1038</v>
+      </c>
+      <c r="B1040" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1041">
+      <c r="A1041" s="1" t="n">
+        <v>1039</v>
+      </c>
+      <c r="B1041" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1042">
+      <c r="A1042" s="1" t="n">
+        <v>1040</v>
+      </c>
+      <c r="B1042" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1043">
+      <c r="A1043" s="1" t="n">
+        <v>1041</v>
+      </c>
+      <c r="B1043" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1044">
+      <c r="A1044" s="1" t="n">
+        <v>1042</v>
+      </c>
+      <c r="B1044" t="inlineStr">
+        <is>
+          <t>['9']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1045">
+      <c r="A1045" s="1" t="n">
+        <v>1043</v>
+      </c>
+      <c r="B1045" t="inlineStr">
+        <is>
+          <t>['9']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1046">
+      <c r="A1046" s="1" t="n">
+        <v>1044</v>
+      </c>
+      <c r="B1046" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1047">
+      <c r="A1047" s="1" t="n">
+        <v>1045</v>
+      </c>
+      <c r="B1047" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1048">
+      <c r="A1048" s="1" t="n">
+        <v>1046</v>
+      </c>
+      <c r="B1048" t="inlineStr">
+        <is>
+          <t>['9']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1049">
+      <c r="A1049" s="1" t="n">
+        <v>1047</v>
+      </c>
+      <c r="B1049" t="inlineStr">
+        <is>
+          <t>['16']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1050">
+      <c r="A1050" s="1" t="n">
+        <v>1048</v>
+      </c>
+      <c r="B1050" t="inlineStr">
+        <is>
+          <t>['16']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1051">
+      <c r="A1051" s="1" t="n">
+        <v>1049</v>
+      </c>
+      <c r="B1051" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1052">
+      <c r="A1052" s="1" t="n">
+        <v>1050</v>
+      </c>
+      <c r="B1052" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1053">
+      <c r="A1053" s="1" t="n">
+        <v>1051</v>
+      </c>
+      <c r="B1053" t="inlineStr">
+        <is>
+          <t>['16']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1054">
+      <c r="A1054" s="1" t="n">
+        <v>1052</v>
+      </c>
+      <c r="B1054" t="inlineStr">
+        <is>
+          <t>['949']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1055">
+      <c r="A1055" s="1" t="n">
+        <v>1053</v>
+      </c>
+      <c r="B1055" t="inlineStr">
+        <is>
+          <t>['949']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1056">
+      <c r="A1056" s="1" t="n">
+        <v>1054</v>
+      </c>
+      <c r="B1056" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1057">
+      <c r="A1057" s="1" t="n">
+        <v>1055</v>
+      </c>
+      <c r="B1057" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1058">
+      <c r="A1058" s="1" t="n">
+        <v>1056</v>
+      </c>
+      <c r="B1058" t="inlineStr">
+        <is>
+          <t>['949']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1059">
+      <c r="A1059" s="1" t="n">
+        <v>1057</v>
+      </c>
+      <c r="B1059" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1060">
+      <c r="A1060" s="1" t="n">
+        <v>1058</v>
+      </c>
+      <c r="B1060" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1061">
+      <c r="A1061" s="1" t="n">
+        <v>1059</v>
+      </c>
+      <c r="B1061" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1062">
+      <c r="A1062" s="1" t="n">
+        <v>1060</v>
+      </c>
+      <c r="B1062" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1063">
+      <c r="A1063" s="1" t="n">
+        <v>1061</v>
+      </c>
+      <c r="B1063" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1064">
+      <c r="A1064" s="1" t="n">
+        <v>1062</v>
+      </c>
+      <c r="B1064" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1065">
+      <c r="A1065" s="1" t="n">
+        <v>1063</v>
+      </c>
+      <c r="B1065" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1066">
+      <c r="A1066" s="1" t="n">
+        <v>1064</v>
+      </c>
+      <c r="B1066" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1067">
+      <c r="A1067" s="1" t="n">
+        <v>1065</v>
+      </c>
+      <c r="B1067" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1068">
+      <c r="A1068" s="1" t="n">
+        <v>1066</v>
+      </c>
+      <c r="B1068" t="inlineStr">
+        <is>
+          <t>['X는 처음이신가요?\n지금 가입해서 나에게 맞춤 설정된 타임라인을 만들어 보세요!\nApple에서 가입하기\n계정 만들기\n가입하시려면 쿠키 사용을 포함해 이용약관과 개인정보 처리방침에 동의해야 합니다.\n문제가 발생했습니다. 새로고침해 보세요.\n다시 시도\n이용약관\n개인정보 처리방침\n쿠키 정책\n접근성\n광고 정보\n더 보기\n© 2024 X Corp.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1069">
+      <c r="A1069" s="1" t="n">
+        <v>1067</v>
+      </c>
+      <c r="B1069" t="inlineStr">
+        <is>
+          <t>['X는 처음이신가요?\n지금 가입해서 나에게 맞춤 설정된 타임라인을 만들어 보세요!\nApple에서 가입하기\n계정 만들기\n가입하시려면 쿠키 사용을 포함해 이용약관과 개인정보 처리방침에 동의해야 합니다.\n문제가 발생했습니다. 새로고침해 보세요.\n다시 시도\n이용약관\n개인정보 처리방침\n쿠키 정책\n접근성\n광고 정보\n더 보기\n© 2024 X Corp.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1070">
+      <c r="A1070" s="1" t="n">
+        <v>1068</v>
+      </c>
+      <c r="B1070" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1071">
+      <c r="A1071" s="1" t="n">
+        <v>1069</v>
+      </c>
+      <c r="B1071" t="inlineStr">
+        <is>
+          <t>['X는 처음이신가요?\n지금 가입해서 나에게 맞춤 설정된 타임라인을 만들어 보세요!\nApple에서 가입하기\n계정 만들기\n가입하시려면 쿠키 사용을 포함해 이용약관과 개인정보 처리방침에 동의해야 합니다.\n문제가 발생했습니다. 새로고침해 보세요.\n다시 시도\n이용약관\n개인정보 처리방침\n쿠키 정책\n접근성\n광고 정보\n더 보기\n© 2024 X Corp.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1072">
+      <c r="A1072" s="1" t="n">
+        <v>1070</v>
+      </c>
+      <c r="B1072" t="inlineStr">
+        <is>
+          <t>['X는 처음이신가요?\n지금 가입해서 나에게 맞춤 설정된 타임라인을 만들어 보세요!\nApple에서 가입하기\n계정 만들기\n가입하시려면 쿠키 사용을 포함해 이용약관과 개인정보 처리방침에 동의해야 합니다.\n문제가 발생했습니다. 새로고침해 보세요.\n다시 시도\n이용약관\n개인정보 처리방침\n쿠키 정책\n접근성\n광고 정보\n더 보기\n© 2024 X Corp.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1073">
+      <c r="A1073" s="1" t="n">
+        <v>1071</v>
+      </c>
+      <c r="B1073" t="inlineStr">
+        <is>
+          <t>['X는 처음이신가요?\n지금 가입해서 나에게 맞춤 설정된 타임라인을 만들어 보세요!\nApple에서 가입하기\n계정 만들기\n가입하시려면 쿠키 사용을 포함해 이용약관과 개인정보 처리방침에 동의해야 합니다.\n문제가 발생했습니다. 새로고침해 보세요.\n다시 시도\n이용약관\n개인정보 처리방침\n쿠키 정책\n접근성\n광고 정보\n더 보기\n© 2024 X Corp.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1074">
+      <c r="A1074" s="1" t="n">
+        <v>1072</v>
+      </c>
+      <c r="B1074" t="inlineStr">
+        <is>
+          <t>['X는 처음이신가요?\n지금 가입해서 나에게 맞춤 설정된 타임라인을 만들어 보세요!\nApple에서 가입하기\n계정 만들기\n가입하시려면 쿠키 사용을 포함해 이용약관과 개인정보 처리방침에 동의해야 합니다.\n문제가 발생했습니다. 새로고침해 보세요.\n다시 시도\n이용약관\n개인정보 처리방침\n쿠키 정책\n접근성\n광고 정보\n더 보기\n© 2024 X Corp.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1075">
+      <c r="A1075" s="1" t="n">
+        <v>1073</v>
+      </c>
+      <c r="B1075" t="inlineStr">
+        <is>
+          <t>['X는 처음이신가요?\n지금 가입해서 나에게 맞춤 설정된 타임라인을 만들어 보세요!\nApple에서 가입하기\n계정 만들기\n가입하시려면 쿠키 사용을 포함해 이용약관과 개인정보 처리방침에 동의해야 합니다.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1076">
+      <c r="A1076" s="1" t="n">
+        <v>1074</v>
+      </c>
+      <c r="B1076" t="inlineStr">
+        <is>
+          <t>['X는 처음이신가요?\n지금 가입해서 나에게 맞춤 설정된 타임라인을 만들어 보세요!\nApple에서 가입하기\n계정 만들기\n가입하시려면 쿠키 사용을 포함해 이용약관과 개인정보 처리방침에 동의해야 합니다.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1077">
+      <c r="A1077" s="1" t="n">
+        <v>1075</v>
+      </c>
+      <c r="B1077" t="inlineStr">
+        <is>
+          <t>['X는 처음이신가요?']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1078">
+      <c r="A1078" s="1" t="n">
+        <v>1076</v>
+      </c>
+      <c r="B1078" t="inlineStr">
+        <is>
+          <t>['X는 처음이신가요?']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1079">
+      <c r="A1079" s="1" t="n">
+        <v>1077</v>
+      </c>
+      <c r="B1079" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1080">
+      <c r="A1080" s="1" t="n">
+        <v>1078</v>
+      </c>
+      <c r="B1080" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1081">
+      <c r="A1081" s="1" t="n">
+        <v>1079</v>
+      </c>
+      <c r="B1081" t="inlineStr">
+        <is>
+          <t>['Apple에서 가입하기\n계정 만들기']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1082">
+      <c r="A1082" s="1" t="n">
+        <v>1080</v>
+      </c>
+      <c r="B1082" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1083">
+      <c r="A1083" s="1" t="n">
+        <v>1081</v>
+      </c>
+      <c r="B1083" t="inlineStr">
+        <is>
+          <t>['Apple에서 가입하기']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1084">
+      <c r="A1084" s="1" t="n">
+        <v>1082</v>
+      </c>
+      <c r="B1084" t="inlineStr">
+        <is>
+          <t>['계정 만들기']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1085">
+      <c r="A1085" s="1" t="n">
+        <v>1083</v>
+      </c>
+      <c r="B1085" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1086">
+      <c r="A1086" s="1" t="n">
+        <v>1084</v>
+      </c>
+      <c r="B1086" t="inlineStr">
+        <is>
+          <t>['문제가 발생했습니다. 새로고침해 보세요.\n다시 시도']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1087">
+      <c r="A1087" s="1" t="n">
+        <v>1085</v>
+      </c>
+      <c r="B1087" t="inlineStr">
+        <is>
+          <t>['문제가 발생했습니다. 새로고침해 보세요.\n다시 시도']</t>
         </is>
       </c>
     </row>
